--- a/src/attributions/attributions_saliency_traj_467.xlsx
+++ b/src/attributions/attributions_saliency_traj_467.xlsx
@@ -1573,1140 +1573,1140 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00190483417827636</v>
+        <v>0.002480538096278906</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0009632264846004546</v>
+        <v>0.02940870635211468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001942540111485869</v>
+        <v>0.000793936662375927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00064496835693717</v>
+        <v>0.01033361628651619</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003415460465475917</v>
+        <v>0.002056167460978031</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002364358399063349</v>
+        <v>0.00619181664660573</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001586142694577575</v>
+        <v>0.00149463617708534</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000631009170319885</v>
+        <v>0.0005958710098639131</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006910808384418488</v>
+        <v>0.0004035090387333184</v>
       </c>
       <c r="J3" t="n">
-        <v>2.470845356583595e-05</v>
+        <v>0.00417036097496748</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0007123037939891219</v>
+        <v>0.01978296414017677</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002689535962417722</v>
+        <v>0.002581805922091007</v>
       </c>
       <c r="M3" t="n">
-        <v>2.743827644735575e-05</v>
+        <v>0.01129852142184973</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003181313397362828</v>
+        <v>0.007657385896891356</v>
       </c>
       <c r="O3" t="n">
-        <v>8.919962419895455e-05</v>
+        <v>0.008422692306339741</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001518015982583165</v>
+        <v>0.001412734505720437</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.299368396867067e-05</v>
+        <v>0.005434825550764799</v>
       </c>
       <c r="R3" t="n">
-        <v>0.006166130304336548</v>
+        <v>0.0001009684783639386</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0002592332311905921</v>
+        <v>0.001367019372992218</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0003196444595232606</v>
+        <v>0.004123055376112461</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0007428256794810295</v>
+        <v>0.001022731885313988</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001692732330411673</v>
+        <v>0.002961775986477733</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001931344624608755</v>
+        <v>0.002687189960852265</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0001318420545430854</v>
+        <v>0.002358235418796539</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001681429566815495</v>
+        <v>0.001954495906829834</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0006772858905605972</v>
+        <v>0.002304371912032366</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0009772205958142877</v>
+        <v>0.00196302286349237</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0004361893224995583</v>
+        <v>0.0008924199501052499</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.00168774661142379</v>
+        <v>0.0031127471011132</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001147976494394243</v>
+        <v>0.002010244177654386</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00163804239127785</v>
+        <v>0.001703090965747833</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.001398051390424371</v>
+        <v>0.00244993157684803</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.001341598457656801</v>
+        <v>0.0005380930961109698</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.001131759956479073</v>
+        <v>0.004042265471071005</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.001259637880139053</v>
+        <v>0.00058739073574543</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.001638008514419198</v>
+        <v>3.556942101567984e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0004207047750242054</v>
+        <v>0.0025353510864079</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.001317428890615702</v>
+        <v>0.0044112135656178</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0006654448225162923</v>
+        <v>0.000824029091745615</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0003313410561531782</v>
+        <v>0.002267534844577312</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0006095309508964419</v>
+        <v>7.714476669207215e-05</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.003107340773567557</v>
+        <v>0.002840586937963963</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0005780563806183636</v>
+        <v>4.632340278476477e-05</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0009825975866988301</v>
+        <v>0.0006571263074874878</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0003583678917493671</v>
+        <v>1.992672332562506e-05</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.002594904974102974</v>
+        <v>0.002229462610557675</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.001302757998928428</v>
+        <v>0.01823326200246811</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.002572300378233194</v>
+        <v>0.0009140230831690133</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0002607007045298815</v>
+        <v>0.0007566263666376472</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.001369126606732607</v>
+        <v>0.00596465403214097</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.003616807982325554</v>
+        <v>0.001165393157862127</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0007732370868325233</v>
+        <v>0.00265411171130836</v>
       </c>
       <c r="BA3" t="n">
-        <v>9.086560748983175e-05</v>
+        <v>8.639157749712467e-05</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.002280998975038528</v>
+        <v>0.0004149074957240373</v>
       </c>
       <c r="BC3" t="n">
-        <v>9.443517046747729e-05</v>
+        <v>0.001132611883804202</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.001013697823509574</v>
+        <v>0.006444921717047691</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.001018942450173199</v>
+        <v>0.002790469909086823</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0003264623810537159</v>
+        <v>0.003364784177392721</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.001054527936503291</v>
+        <v>0.007701482623815536</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.001458151964470744</v>
+        <v>0.001945315161719918</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.001032276079058647</v>
+        <v>0.005147724412381649</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.002636670367792249</v>
+        <v>0.004239439964294434</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.002483950927853584</v>
+        <v>0.0001196109515149146</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0004543586983345449</v>
+        <v>0.003999987617135048</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.72106073377654e-05</v>
+        <v>0.001702354173175991</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.00137488089967519</v>
+        <v>0.001243349979631603</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.001163824927061796</v>
+        <v>0.0009826502064242959</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0007154921186156571</v>
+        <v>0.001649270649068058</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0002113175432896242</v>
+        <v>6.311119068413973e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0007106340490281582</v>
+        <v>0.0005931832129135728</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.001174663542769849</v>
+        <v>0.0009647035039961338</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0008375608595088124</v>
+        <v>7.057840412016958e-05</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.000129527470562607</v>
+        <v>0.002429399406537414</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0009562874911352992</v>
+        <v>0.009780196473002434</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0003063648473471403</v>
+        <v>0.0004498141061048955</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0002591636730358005</v>
+        <v>0.00221717287786305</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.002417606301605701</v>
+        <v>0.001513456576503813</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0001276742259506136</v>
+        <v>0.004423157311975956</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.001297025592066348</v>
+        <v>0.001199288060888648</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.0006056417478248477</v>
+        <v>0.001340762246400118</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.003051008097827435</v>
+        <v>0.0008669295930303633</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0001827361702453345</v>
+        <v>0.001699427608400583</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.001101611414924264</v>
+        <v>0.004691726062446833</v>
       </c>
       <c r="CF3" t="n">
-        <v>8.641499880468473e-05</v>
+        <v>0.001154542434960604</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.000540397479198873</v>
+        <v>0.0006254524341784418</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0009376242524012923</v>
+        <v>0.0006270414451137185</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.0005687050870619714</v>
+        <v>0.001423551002517343</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0005934015498496592</v>
+        <v>0.001504273852333426</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0002330121351405978</v>
+        <v>0.0005564118619076908</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0004807022050954401</v>
+        <v>0.0008055831422097981</v>
       </c>
       <c r="CM3" t="n">
-        <v>6.265955744311213e-05</v>
+        <v>0.001540819415822625</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0007204144494608045</v>
+        <v>0.0008091807831078768</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0006185343372635543</v>
+        <v>0.001521818106994033</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.000605122942943126</v>
+        <v>0.003740661544725299</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0004665651358664036</v>
+        <v>0.00259780278429389</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0007906627142801881</v>
+        <v>0.003802745370194316</v>
       </c>
       <c r="CS3" t="n">
-        <v>9.2853166279383e-05</v>
+        <v>0.003782584331929684</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0005542165599763393</v>
+        <v>0.00491652125492692</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.001387644908390939</v>
+        <v>0.001855824142694473</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0002831763122230768</v>
+        <v>0.001371136633679271</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.001064150244928896</v>
+        <v>0.003979175817221403</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0001466005924157798</v>
+        <v>0.001406545867212117</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0003773745556827635</v>
+        <v>0.001704361755400896</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0009945030324161053</v>
+        <v>0.001043870346620679</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.001151792122982442</v>
+        <v>0.002044718712568283</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0001394449063809589</v>
+        <v>0.001336493063718081</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0001330587692791596</v>
+        <v>0.0002153347595594823</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.000977248651906848</v>
+        <v>0.0003821480204351246</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.000460652750916779</v>
+        <v>0.002134229289367795</v>
       </c>
       <c r="DF3" t="n">
-        <v>6.03148655500263e-05</v>
+        <v>0.005136957392096519</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.002715131733566523</v>
+        <v>0.0005423063412308693</v>
       </c>
       <c r="DH3" t="n">
-        <v>8.3332066424191e-05</v>
+        <v>0.004400445148348808</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.001703117741271853</v>
+        <v>0.001281901611946523</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.003338231705129147</v>
+        <v>0.003674124134704471</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.003776750527322292</v>
+        <v>0.00404857425019145</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0002006794966291636</v>
+        <v>0.002523910952731967</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0001631192280910909</v>
+        <v>0.0005155130638740957</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.000835245824418962</v>
+        <v>0.00218855426646769</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0004892096621915698</v>
+        <v>0.0009433229570277035</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.001797596225515008</v>
+        <v>0.002014969009906054</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0005704656359739602</v>
+        <v>0.004110273439437151</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0004964246181771159</v>
+        <v>0.0009404666488990188</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0004054681630805135</v>
+        <v>0.002728165592998266</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0001579330855747685</v>
+        <v>0.0001078755303751677</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0002432240580674261</v>
+        <v>0.001077978871762753</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0004809194360859692</v>
+        <v>0.001343514304608107</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.001062616123817861</v>
+        <v>0.001384287606924772</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0005932323401793838</v>
+        <v>0.0002487244200892746</v>
       </c>
       <c r="DY3" t="n">
-        <v>4.324187830206938e-05</v>
+        <v>0.003280693665146828</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0003266470157541335</v>
+        <v>0.00224028411321342</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.001681127469055355</v>
+        <v>0.003409556578844786</v>
       </c>
       <c r="EB3" t="n">
-        <v>3.986139927292243e-05</v>
+        <v>0.0004814468557015061</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.001064254902303219</v>
+        <v>0.001047965721227229</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0005064589204266667</v>
+        <v>0.002384582534432411</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0003115497529506683</v>
+        <v>0.001045314245857298</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0001558242365717888</v>
+        <v>0.0002693352871574461</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.00232573552057147</v>
+        <v>0.002452476415783167</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0002582471934147179</v>
+        <v>0.0001949014113051817</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0007342596654780209</v>
+        <v>0.00163193023763597</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0007566186832264066</v>
+        <v>0.0008054529316723347</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.0006544385687448084</v>
+        <v>5.322736978996545e-05</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0005786652909591794</v>
+        <v>0.002208344172686338</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0004425380029715598</v>
+        <v>0.0002269386895932257</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.001242256257683039</v>
+        <v>0.0006677790079265833</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.001282386248931289</v>
+        <v>0.0007274296367540956</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.001404877752065659</v>
+        <v>0.002096687676385045</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.0002950483758468181</v>
+        <v>0.0001826624938985333</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.0007773602847009897</v>
+        <v>0.001989682205021381</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0001143756235251203</v>
+        <v>0.00142946292180568</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0009968358790501952</v>
+        <v>0.009588179178535938</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.001139325322583318</v>
+        <v>0.001202861429192126</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0002867346920538694</v>
+        <v>0.00128200720064342</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0009362004930153489</v>
+        <v>0.0003700862580444664</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0003592416760511696</v>
+        <v>0.001296759233810008</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.001100815716199577</v>
+        <v>0.003979731351137161</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3.498306614346802e-05</v>
+        <v>0.0005463312845677137</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0006297009531408548</v>
+        <v>0.0008553277002647519</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.0009111356339417398</v>
+        <v>0.0008948454633355141</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.001024404657073319</v>
+        <v>0.001998527674004436</v>
       </c>
       <c r="FD3" t="n">
-        <v>5.310056803864427e-05</v>
+        <v>0.001576399197801948</v>
       </c>
       <c r="FE3" t="n">
-        <v>4.378434459795244e-05</v>
+        <v>9.032549132825807e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.000894955126568675</v>
+        <v>0.0008829435100778937</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0004201283445581794</v>
+        <v>5.261051410343498e-05</v>
       </c>
       <c r="FH3" t="n">
-        <v>9.578393655829132e-05</v>
+        <v>0.003825300605967641</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.001159010920673609</v>
+        <v>0.001531101064756513</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.001326862256973982</v>
+        <v>0.003163897432386875</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.000417910108808428</v>
+        <v>0.00274292379617691</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.0004409074026625603</v>
+        <v>0.003743656678125262</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0001102687674574554</v>
+        <v>0.0003831065841950476</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.001210230635479093</v>
+        <v>0.003160936525091529</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.0001518124481663108</v>
+        <v>0.001098672626540065</v>
       </c>
       <c r="FP3" t="n">
-        <v>9.899333235807717e-05</v>
+        <v>0.001674382481724024</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.0001736924168653786</v>
+        <v>0.002768431324511766</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0004961055237799883</v>
+        <v>0.0008023913251236081</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.001975229475647211</v>
+        <v>0.0007157946238294244</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.0002727368555497378</v>
+        <v>0.001884877914562821</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.0006838731351308525</v>
+        <v>0.001786320237442851</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.0001461382489651442</v>
+        <v>0.003693580627441406</v>
       </c>
       <c r="FW3" t="n">
-        <v>6.038178980816156e-06</v>
+        <v>0.002079721307381988</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.001023940509185195</v>
+        <v>0.0003068258229177445</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0008514570654369891</v>
+        <v>0.0009396691457368433</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.001718692132271826</v>
+        <v>0.002759796800091863</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0009098342270590365</v>
+        <v>0.0005422474932856858</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0007137323264032602</v>
+        <v>0.001160595798864961</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.0006200752686709166</v>
+        <v>0.002217820379883051</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0002524773590266705</v>
+        <v>0.003028747858479619</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0004731905064545572</v>
+        <v>0.004213269334286451</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0002562649315223098</v>
+        <v>0.001064350595697761</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0005721619236283004</v>
+        <v>0.0007106479606591165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.528098659444368e-06</v>
+        <v>0.0009828585898503661</v>
       </c>
       <c r="B4" t="n">
-        <v>2.314091489097336e-06</v>
+        <v>0.01241762470453978</v>
       </c>
       <c r="C4" t="n">
-        <v>1.840388722484931e-05</v>
+        <v>0.0009276208584196866</v>
       </c>
       <c r="D4" t="n">
-        <v>8.942729436967056e-07</v>
+        <v>0.006636457983404398</v>
       </c>
       <c r="E4" t="n">
-        <v>1.308640003117034e-05</v>
+        <v>0.002081583952531219</v>
       </c>
       <c r="F4" t="n">
-        <v>7.489618383260677e-07</v>
+        <v>0.003132754005491734</v>
       </c>
       <c r="G4" t="n">
-        <v>9.541627150611021e-07</v>
+        <v>0.001030539744533598</v>
       </c>
       <c r="H4" t="n">
-        <v>3.937931523978477e-06</v>
+        <v>0.0009053287794813514</v>
       </c>
       <c r="I4" t="n">
-        <v>1.408692878612783e-05</v>
+        <v>0.0007488061091862619</v>
       </c>
       <c r="J4" t="n">
-        <v>1.311184178121039e-06</v>
+        <v>0.001860988326370716</v>
       </c>
       <c r="K4" t="n">
-        <v>2.773575261016958e-06</v>
+        <v>0.00904530007392168</v>
       </c>
       <c r="L4" t="n">
-        <v>1.838767457229551e-05</v>
+        <v>0.0007597928633913398</v>
       </c>
       <c r="M4" t="n">
-        <v>5.45021748621366e-07</v>
+        <v>0.006422571372240782</v>
       </c>
       <c r="N4" t="n">
-        <v>6.586131348740309e-06</v>
+        <v>0.003346675308421254</v>
       </c>
       <c r="O4" t="n">
-        <v>2.038116235780763e-06</v>
+        <v>0.004352869931608438</v>
       </c>
       <c r="P4" t="n">
-        <v>1.59087846896e-06</v>
+        <v>0.0009101036703214049</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.127648819325259e-06</v>
+        <v>0.0005425337003543973</v>
       </c>
       <c r="R4" t="n">
-        <v>1.478130525356391e-05</v>
+        <v>0.001016268157400191</v>
       </c>
       <c r="S4" t="n">
-        <v>5.887600309506524e-07</v>
+        <v>0.000487598852487281</v>
       </c>
       <c r="T4" t="n">
-        <v>6.072725227568299e-06</v>
+        <v>0.001614448614418507</v>
       </c>
       <c r="U4" t="n">
-        <v>6.284009259616141e-07</v>
+        <v>0.0003578763862606138</v>
       </c>
       <c r="V4" t="n">
-        <v>5.428116310213227e-06</v>
+        <v>0.0009719362133182585</v>
       </c>
       <c r="W4" t="n">
-        <v>9.927516657626256e-07</v>
+        <v>0.0006969537353143096</v>
       </c>
       <c r="X4" t="n">
-        <v>1.715702524052176e-06</v>
+        <v>0.001224072533659637</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.02643161881133e-06</v>
+        <v>0.001427053706720471</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.512393388722558e-06</v>
+        <v>0.0009088608203455806</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.74644401340629e-06</v>
+        <v>0.0004017054452560842</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.35815888219804e-07</v>
+        <v>0.0008552407962270081</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.099128207395552e-07</v>
+        <v>0.001799871097318828</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.170500695479859e-06</v>
+        <v>0.0004244342562742531</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.963247996172868e-06</v>
+        <v>8.495092333760113e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.864814175358333e-07</v>
+        <v>0.0008319329936057329</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.258886623480066e-07</v>
+        <v>0.0004208704049233347</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.746201617919724e-07</v>
+        <v>0.0004912481526844203</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.431653789855773e-06</v>
+        <v>0.0003439346037339419</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.06373874284327e-06</v>
+        <v>0.000375021860236302</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.728238126172073e-08</v>
+        <v>0.001280792523175478</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.151278855919372e-06</v>
+        <v>0.001149368938058615</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.507238266640343e-06</v>
+        <v>0.0001740130974212661</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.668341383265215e-06</v>
+        <v>0.0003344780998304486</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.378988241020124e-07</v>
+        <v>0.001303714816458523</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.313471552246483e-06</v>
+        <v>0.001381546491757035</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.368792084122106e-07</v>
+        <v>0.0003966385556850582</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.259494534863961e-09</v>
+        <v>0.0009416078682988882</v>
       </c>
       <c r="AS4" t="n">
-        <v>6.937851537713868e-08</v>
+        <v>0.0007905617821961641</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.816645741811953e-06</v>
+        <v>0.001014181296341121</v>
       </c>
       <c r="AU4" t="n">
-        <v>4.871929377259221e-06</v>
+        <v>0.0095910569652915</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.440752748749219e-05</v>
+        <v>0.0001308348291786388</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.607192302799376e-06</v>
+        <v>0.001776147400960326</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.276430900063133e-06</v>
+        <v>0.0009303377009928226</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.479040843667462e-06</v>
+        <v>9.692554158391431e-06</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.552476987853879e-06</v>
+        <v>0.000484288641018793</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.960881602120935e-06</v>
+        <v>0.0005460440297611058</v>
       </c>
       <c r="BB4" t="n">
-        <v>3.690001676659449e-06</v>
+        <v>0.0005218727746978402</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.094210399012809e-07</v>
+        <v>0.000306907226331532</v>
       </c>
       <c r="BD4" t="n">
-        <v>9.487216061643267e-07</v>
+        <v>0.00261463038623333</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.734872962013469e-06</v>
+        <v>0.002720680553466082</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.948507807966962e-07</v>
+        <v>0.001282431301660836</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.302429038536502e-06</v>
+        <v>0.003103091847151518</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.464590579620562e-06</v>
+        <v>0.002779057249426842</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.931880433403421e-09</v>
+        <v>0.001770226284861565</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.848898475349415e-06</v>
+        <v>0.0002820865483954549</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.960869667527732e-06</v>
+        <v>0.0007635449292138219</v>
       </c>
       <c r="BL4" t="n">
-        <v>6.174586246743274e-07</v>
+        <v>0.001210669288411736</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.565609863973805e-07</v>
+        <v>0.002195078413933516</v>
       </c>
       <c r="BN4" t="n">
-        <v>6.228641723282635e-06</v>
+        <v>0.001000964315608144</v>
       </c>
       <c r="BO4" t="n">
-        <v>2.375505573581904e-06</v>
+        <v>0.0001884739613160491</v>
       </c>
       <c r="BP4" t="n">
-        <v>3.654155989352148e-06</v>
+        <v>0.001693446072749794</v>
       </c>
       <c r="BQ4" t="n">
-        <v>4.831839532926097e-07</v>
+        <v>0.001036362489685416</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.92597917450621e-07</v>
+        <v>0.0002013640769291669</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.318629412911832e-06</v>
+        <v>0.0001761673483997583</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.451844011375215e-06</v>
+        <v>0.0004661669954657555</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.338823949481593e-06</v>
+        <v>0.00096558325458318</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.361745828238782e-06</v>
+        <v>0.004606315400451422</v>
       </c>
       <c r="BW4" t="n">
-        <v>4.019731477455935e-06</v>
+        <v>0.001287089427933097</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.541702886243002e-06</v>
+        <v>0.001157933962531388</v>
       </c>
       <c r="BY4" t="n">
-        <v>5.283438440528698e-06</v>
+        <v>2.278708416270092e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.95877316602855e-06</v>
+        <v>0.002248747274279594</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.781984764193112e-07</v>
+        <v>9.817368118092418e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.16669354813348e-06</v>
+        <v>0.0008818897185847163</v>
       </c>
       <c r="CC4" t="n">
-        <v>4.921670097246533e-06</v>
+        <v>0.000567696348298341</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.056054941273032e-07</v>
+        <v>0.0004828374949283898</v>
       </c>
       <c r="CE4" t="n">
-        <v>3.179228542649071e-06</v>
+        <v>0.001998509280383587</v>
       </c>
       <c r="CF4" t="n">
-        <v>3.297799594292883e-06</v>
+        <v>0.0008293811115436256</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.433973011444323e-06</v>
+        <v>0.0006290770252235234</v>
       </c>
       <c r="CH4" t="n">
-        <v>3.009951342392014e-06</v>
+        <v>0.0002895311627071351</v>
       </c>
       <c r="CI4" t="n">
-        <v>6.376803867169656e-07</v>
+        <v>0.0007754099788144231</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.753292622197478e-08</v>
+        <v>0.0005465337308123708</v>
       </c>
       <c r="CK4" t="n">
-        <v>3.89061511896216e-08</v>
+        <v>5.384950782172382e-05</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.909663296828512e-06</v>
+        <v>0.0001081629598047584</v>
       </c>
       <c r="CM4" t="n">
-        <v>6.547702469106298e-08</v>
+        <v>0.001926814205944538</v>
       </c>
       <c r="CN4" t="n">
-        <v>6.046777798474068e-06</v>
+        <v>0.001508647110313177</v>
       </c>
       <c r="CO4" t="n">
-        <v>8.544601541871089e-07</v>
+        <v>0.0002486759913153946</v>
       </c>
       <c r="CP4" t="n">
-        <v>3.37365719360605e-07</v>
+        <v>0.001627822057344019</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.008853016377543e-06</v>
+        <v>0.001676248968578875</v>
       </c>
       <c r="CR4" t="n">
-        <v>7.604517122672405e-07</v>
+        <v>0.001118429587222636</v>
       </c>
       <c r="CS4" t="n">
-        <v>7.204757253020944e-07</v>
+        <v>0.001210314687341452</v>
       </c>
       <c r="CT4" t="n">
-        <v>2.159722953365417e-06</v>
+        <v>0.002728533232584596</v>
       </c>
       <c r="CU4" t="n">
-        <v>6.053863671695581e-06</v>
+        <v>3.847131301881745e-05</v>
       </c>
       <c r="CV4" t="n">
-        <v>3.909165116056101e-07</v>
+        <v>0.0003554206632543355</v>
       </c>
       <c r="CW4" t="n">
-        <v>2.375250915065408e-06</v>
+        <v>0.001482958206906915</v>
       </c>
       <c r="CX4" t="n">
-        <v>2.904624125221744e-06</v>
+        <v>0.001122927293181419</v>
       </c>
       <c r="CY4" t="n">
-        <v>9.1858453288296e-07</v>
+        <v>0.00114675925578922</v>
       </c>
       <c r="CZ4" t="n">
-        <v>4.145593720750185e-06</v>
+        <v>0.0001904869277495891</v>
       </c>
       <c r="DA4" t="n">
-        <v>7.123714453882712e-07</v>
+        <v>0.0007399629685096443</v>
       </c>
       <c r="DB4" t="n">
-        <v>7.489334166166373e-07</v>
+        <v>0.0004317501443438232</v>
       </c>
       <c r="DC4" t="n">
-        <v>9.625112085132059e-08</v>
+        <v>4.460429772734642e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>2.440647449475364e-06</v>
+        <v>3.349778125993907e-06</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.739308004289342e-06</v>
+        <v>0.001050392049364746</v>
       </c>
       <c r="DF4" t="n">
-        <v>7.122579063434387e-06</v>
+        <v>0.00178008689545095</v>
       </c>
       <c r="DG4" t="n">
-        <v>9.814478289627004e-06</v>
+        <v>0.001327770412899554</v>
       </c>
       <c r="DH4" t="n">
-        <v>8.612974511379434e-07</v>
+        <v>0.003462971188127995</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.939054527611006e-06</v>
+        <v>0.0005187794449739158</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.017641011458181e-06</v>
+        <v>7.406866643577814e-05</v>
       </c>
       <c r="DK4" t="n">
-        <v>6.640319043071941e-06</v>
+        <v>0.0008698457386344671</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.102626922351192e-06</v>
+        <v>0.0004302870365791023</v>
       </c>
       <c r="DM4" t="n">
-        <v>4.685356543632224e-06</v>
+        <v>7.435475708916783e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.282072389585664e-06</v>
+        <v>0.0009394827065989375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.190310854326526e-07</v>
+        <v>0.0003285812272224575</v>
       </c>
       <c r="DP4" t="n">
-        <v>7.785735078869038e-07</v>
+        <v>0.0009298459044657648</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2.055530103461933e-06</v>
+        <v>7.096467743394896e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.226358676831296e-07</v>
+        <v>0.000493092811666429</v>
       </c>
       <c r="DS4" t="n">
-        <v>2.403042117293808e-06</v>
+        <v>0.0007191691547632217</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.56387613969855e-06</v>
+        <v>0.0001906403922475874</v>
       </c>
       <c r="DU4" t="n">
-        <v>6.834627583884867e-07</v>
+        <v>0.0003740742686204612</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.790685701053008e-06</v>
+        <v>0.0003597299801185727</v>
       </c>
       <c r="DW4" t="n">
-        <v>6.573619657501695e-07</v>
+        <v>0.0002026832662522793</v>
       </c>
       <c r="DX4" t="n">
-        <v>1.621636329218745e-06</v>
+        <v>0.0003586802049539983</v>
       </c>
       <c r="DY4" t="n">
-        <v>2.280552052980056e-06</v>
+        <v>0.001649601268582046</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.774538759491406e-06</v>
+        <v>0.0002303936926182359</v>
       </c>
       <c r="EA4" t="n">
-        <v>2.708248985072714e-06</v>
+        <v>0.001484930398873985</v>
       </c>
       <c r="EB4" t="n">
-        <v>6.382042556651868e-07</v>
+        <v>0.0008434390183538198</v>
       </c>
       <c r="EC4" t="n">
-        <v>5.870122663509392e-07</v>
+        <v>0.0005546167958527803</v>
       </c>
       <c r="ED4" t="n">
-        <v>4.079976747561886e-07</v>
+        <v>0.0005608557257801294</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.223569597641472e-06</v>
+        <v>7.56137742428109e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>2.759546191555273e-08</v>
+        <v>0.0002563996240496635</v>
       </c>
       <c r="EG4" t="n">
-        <v>3.88141143048415e-06</v>
+        <v>0.00145171582698822</v>
       </c>
       <c r="EH4" t="n">
-        <v>2.72809461421275e-06</v>
+        <v>0.0002773050800897181</v>
       </c>
       <c r="EI4" t="n">
-        <v>5.934557520959061e-07</v>
+        <v>0.001348095946013927</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.650214130677341e-06</v>
+        <v>0.0004601414548233151</v>
       </c>
       <c r="EK4" t="n">
-        <v>4.145939328736858e-06</v>
+        <v>0.0006117760203778744</v>
       </c>
       <c r="EL4" t="n">
-        <v>2.187789050367428e-06</v>
+        <v>0.0004491424188017845</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.719351303108851e-06</v>
+        <v>0.0002780033100862056</v>
       </c>
       <c r="EN4" t="n">
-        <v>1.262069304175384e-06</v>
+        <v>5.829521978739649e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>9.579737252352061e-07</v>
+        <v>0.0006186222890391946</v>
       </c>
       <c r="EP4" t="n">
-        <v>3.321034000691725e-06</v>
+        <v>0.001284504309296608</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2.396209879407252e-07</v>
+        <v>0.0007130192243494093</v>
       </c>
       <c r="ER4" t="n">
-        <v>1.281356844629045e-06</v>
+        <v>0.001021295669488609</v>
       </c>
       <c r="ES4" t="n">
-        <v>2.401085566816619e-06</v>
+        <v>0.0002097804099321365</v>
       </c>
       <c r="ET4" t="n">
-        <v>3.648195388450404e-06</v>
+        <v>0.003146878443658352</v>
       </c>
       <c r="EU4" t="n">
-        <v>2.298551862622844e-06</v>
+        <v>0.001053668325766921</v>
       </c>
       <c r="EV4" t="n">
-        <v>7.067777687552734e-07</v>
+        <v>0.0009570301044732332</v>
       </c>
       <c r="EW4" t="n">
-        <v>3.326117166579934e-06</v>
+        <v>0.0005014801281504333</v>
       </c>
       <c r="EX4" t="n">
-        <v>3.64402907848671e-09</v>
+        <v>0.0001539643853902817</v>
       </c>
       <c r="EY4" t="n">
-        <v>2.673824610610609e-06</v>
+        <v>0.001574311754666269</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3.037873284483794e-06</v>
+        <v>0.0005775340832769871</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.214651661030075e-06</v>
+        <v>0.0009060450829565525</v>
       </c>
       <c r="FB4" t="n">
-        <v>2.359676500418573e-06</v>
+        <v>0.0001151155302068219</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.54360606074988e-07</v>
+        <v>0.001012123306281865</v>
       </c>
       <c r="FD4" t="n">
-        <v>4.494935126331256e-07</v>
+        <v>0.0005998242413625121</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.821944065090065e-07</v>
+        <v>7.690800703130662e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>2.831829078786541e-06</v>
+        <v>0.0001496947952546179</v>
       </c>
       <c r="FG4" t="n">
-        <v>9.809275525185512e-08</v>
+        <v>9.27780638448894e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.220279500557808e-06</v>
+        <v>0.0001619995600776747</v>
       </c>
       <c r="FI4" t="n">
-        <v>8.368907629119349e-07</v>
+        <v>0.0005087535828351974</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2.784750449791318e-06</v>
+        <v>0.001183898188173771</v>
       </c>
       <c r="FK4" t="n">
-        <v>1.669269408921537e-06</v>
+        <v>0.0006712343893013895</v>
       </c>
       <c r="FL4" t="n">
-        <v>1.370805648548412e-06</v>
+        <v>0.0001217303215526044</v>
       </c>
       <c r="FM4" t="n">
-        <v>6.533026919441909e-08</v>
+        <v>0.0006331696640700102</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.203883812195272e-06</v>
+        <v>0.0003613881708588451</v>
       </c>
       <c r="FO4" t="n">
-        <v>3.565485485523823e-06</v>
+        <v>0.0004681324353441596</v>
       </c>
       <c r="FP4" t="n">
-        <v>6.612220886381692e-07</v>
+        <v>0.0007214811630547047</v>
       </c>
       <c r="FQ4" t="n">
-        <v>5.178818355489057e-06</v>
+        <v>0.001397894462570548</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.332191345682077e-06</v>
+        <v>0.000275239406619221</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.528316261101281e-06</v>
+        <v>0.00117780186701566</v>
       </c>
       <c r="FT4" t="n">
-        <v>3.054675516978023e-06</v>
+        <v>8.477340452373028e-05</v>
       </c>
       <c r="FU4" t="n">
-        <v>1.00135537195456e-06</v>
+        <v>0.0003726488212123513</v>
       </c>
       <c r="FV4" t="n">
-        <v>1.631026520954038e-06</v>
+        <v>0.0007157358340919018</v>
       </c>
       <c r="FW4" t="n">
-        <v>6.475937084360339e-07</v>
+        <v>0.0002402584505034611</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.492730234531336e-06</v>
+        <v>0.0008710699039511383</v>
       </c>
       <c r="FY4" t="n">
-        <v>5.482660299094277e-07</v>
+        <v>0.00136818434111774</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1.280073320231168e-06</v>
+        <v>0.0005784143577329814</v>
       </c>
       <c r="GA4" t="n">
-        <v>1.551638320052007e-06</v>
+        <v>0.0003310754254925996</v>
       </c>
       <c r="GB4" t="n">
-        <v>1.758648295435705e-06</v>
+        <v>0.0005721320630982518</v>
       </c>
       <c r="GC4" t="n">
-        <v>3.847869436413021e-07</v>
+        <v>8.779834024608135e-05</v>
       </c>
       <c r="GD4" t="n">
-        <v>5.842976861458737e-06</v>
+        <v>0.001127603929489851</v>
       </c>
       <c r="GE4" t="n">
-        <v>3.3485110861875e-07</v>
+        <v>0.002714056055992842</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.538156311653438e-06</v>
+        <v>0.0006193508743308485</v>
       </c>
       <c r="GG4" t="n">
-        <v>6.237744969439518e-07</v>
+        <v>0.0002857213257811964</v>
       </c>
     </row>
     <row r="5">
@@ -3280,1709 +3280,1709 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.97282207131866e-12</v>
+        <v>2.270957644157079e-09</v>
       </c>
       <c r="B6" t="n">
-        <v>7.091858211794033e-10</v>
+        <v>1.69722511600412e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>4.712174828114257e-08</v>
+        <v>7.243979305293635e-10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.007234822798409e-09</v>
+        <v>3.097690282061194e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>2.847856706011953e-08</v>
+        <v>2.081056660330205e-09</v>
       </c>
       <c r="F6" t="n">
-        <v>1.937199911594689e-08</v>
+        <v>7.42652606078309e-10</v>
       </c>
       <c r="G6" t="n">
-        <v>1.434825591672961e-10</v>
+        <v>2.016395383996894e-10</v>
       </c>
       <c r="H6" t="n">
-        <v>1.551396566767949e-09</v>
+        <v>5.610006348355512e-10</v>
       </c>
       <c r="I6" t="n">
-        <v>3.353166277975106e-08</v>
+        <v>3.429724504400156e-09</v>
       </c>
       <c r="J6" t="n">
-        <v>3.863893205391378e-09</v>
+        <v>5.643890688133979e-09</v>
       </c>
       <c r="K6" t="n">
-        <v>1.701183194313671e-09</v>
+        <v>1.056985077241279e-08</v>
       </c>
       <c r="L6" t="n">
-        <v>4.46272778731327e-08</v>
+        <v>7.940698654174128e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>6.651399875323705e-09</v>
+        <v>1.556842299521577e-08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.49138408289673e-08</v>
+        <v>4.989872515182014e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>1.042375696869158e-08</v>
+        <v>6.518327655413714e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>3.533644044040329e-09</v>
+        <v>5.986768858434743e-09</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.285368835458939e-09</v>
+        <v>6.409034192245144e-09</v>
       </c>
       <c r="R6" t="n">
-        <v>3.55908547078343e-08</v>
+        <v>5.144975556703457e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>6.827077569937501e-09</v>
+        <v>1.268471994109177e-09</v>
       </c>
       <c r="T6" t="n">
-        <v>5.913170397775502e-09</v>
+        <v>3.713150453776848e-09</v>
       </c>
       <c r="U6" t="n">
-        <v>6.031958932339876e-09</v>
+        <v>9.930656297285623e-11</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19452341351689e-08</v>
+        <v>1.126336246493054e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.175391428631656e-08</v>
+        <v>6.58696475142051e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>3.336621867688905e-09</v>
+        <v>3.871509779429516e-09</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.129858646872435e-09</v>
+        <v>1.051758236059186e-08</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.044086594959026e-08</v>
+        <v>2.033767376730111e-09</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.696497578673188e-09</v>
+        <v>3.664363035227325e-09</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.460754236632283e-11</v>
+        <v>3.098581391469679e-10</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.290849382939996e-08</v>
+        <v>1.079562217398689e-09</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.129086406123861e-09</v>
+        <v>6.03763983253458e-11</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.802432591015759e-09</v>
+        <v>3.432575779171998e-09</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.242326015623803e-09</v>
+        <v>6.156677834212587e-09</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.632330658476235e-09</v>
+        <v>4.421532917575632e-09</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.001730698391157e-09</v>
+        <v>5.72587088853993e-10</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.732317223002156e-08</v>
+        <v>2.106633978371519e-09</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.525537207669458e-08</v>
+        <v>1.946380168149631e-09</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.434285246126876e-09</v>
+        <v>1.855187448107642e-09</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.390245417733695e-09</v>
+        <v>3.33000271801609e-09</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.526379880966715e-09</v>
+        <v>8.81370587624275e-10</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.086683631967844e-09</v>
+        <v>2.629376494311941e-09</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.158281967178937e-09</v>
+        <v>1.456910259101107e-09</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.577871746240362e-09</v>
+        <v>1.751204514732763e-09</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.999868937119231e-09</v>
+        <v>3.997823849744009e-09</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.982386420631201e-09</v>
+        <v>1.876784283538768e-09</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.313623542222643e-10</v>
+        <v>1.849969399891904e-09</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.760299988580073e-09</v>
+        <v>4.042581824847957e-10</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.074973621228992e-08</v>
+        <v>7.184863370923722e-09</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.864533061279872e-08</v>
+        <v>5.735274477558505e-10</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.396434244962165e-10</v>
+        <v>1.942869687354687e-08</v>
       </c>
       <c r="AX6" t="n">
-        <v>9.5983478942685e-09</v>
+        <v>6.350718173564474e-09</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.203271615679569e-08</v>
+        <v>2.886624272946392e-09</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.802124310363752e-09</v>
+        <v>5.99341332119252e-09</v>
       </c>
       <c r="BA6" t="n">
-        <v>7.850834649048011e-09</v>
+        <v>5.328328001041882e-09</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.74630468261239e-09</v>
+        <v>4.647308760041824e-09</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.022131934647064e-09</v>
+        <v>1.379409697577216e-09</v>
       </c>
       <c r="BD6" t="n">
-        <v>5.285334836457878e-09</v>
+        <v>2.01443128844403e-09</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.878922617493117e-08</v>
+        <v>2.480917027369856e-09</v>
       </c>
       <c r="BF6" t="n">
-        <v>9.222700381172899e-10</v>
+        <v>2.42002418104903e-10</v>
       </c>
       <c r="BG6" t="n">
-        <v>7.730639239866832e-09</v>
+        <v>2.753341554750932e-09</v>
       </c>
       <c r="BH6" t="n">
-        <v>8.710009602452828e-09</v>
+        <v>2.452535730057548e-09</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.131286175848345e-10</v>
+        <v>4.542012543851115e-09</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.827886286775993e-09</v>
+        <v>9.791367716616151e-09</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.038741892500639e-08</v>
+        <v>2.41687048152528e-09</v>
       </c>
       <c r="BL6" t="n">
-        <v>4.374641981996774e-09</v>
+        <v>3.503221046585736e-10</v>
       </c>
       <c r="BM6" t="n">
-        <v>3.159235095751001e-10</v>
+        <v>2.11313952447334e-11</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.417616424248536e-08</v>
+        <v>5.439532380080436e-09</v>
       </c>
       <c r="BO6" t="n">
-        <v>4.554124855005171e-10</v>
+        <v>1.141293393125409e-09</v>
       </c>
       <c r="BP6" t="n">
-        <v>8.783260341260757e-09</v>
+        <v>5.12903142180221e-09</v>
       </c>
       <c r="BQ6" t="n">
-        <v>6.081772863097967e-09</v>
+        <v>2.838930424076125e-09</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.19730877937252e-09</v>
+        <v>1.904896462789907e-09</v>
       </c>
       <c r="BS6" t="n">
-        <v>4.235790607154399e-10</v>
+        <v>2.926149100801467e-09</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.956559358973209e-09</v>
+        <v>1.454536935341366e-09</v>
       </c>
       <c r="BU6" t="n">
-        <v>2.273365939942096e-10</v>
+        <v>6.451153500286466e-10</v>
       </c>
       <c r="BV6" t="n">
-        <v>8.463333145414254e-09</v>
+        <v>5.652582402149164e-09</v>
       </c>
       <c r="BW6" t="n">
-        <v>8.218650648927905e-09</v>
+        <v>2.000347443242845e-09</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.423745121797992e-09</v>
+        <v>7.803050650068144e-09</v>
       </c>
       <c r="BY6" t="n">
-        <v>9.741810025332143e-09</v>
+        <v>4.491797600536529e-09</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.080352873827906e-08</v>
+        <v>1.847351716044443e-10</v>
       </c>
       <c r="CA6" t="n">
-        <v>2.521417519218971e-09</v>
+        <v>3.496104072908679e-09</v>
       </c>
       <c r="CB6" t="n">
-        <v>3.601885678605754e-09</v>
+        <v>2.012280342356121e-09</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.219056056100953e-08</v>
+        <v>4.317205704040816e-09</v>
       </c>
       <c r="CD6" t="n">
-        <v>4.652895402301738e-09</v>
+        <v>5.555398363554787e-10</v>
       </c>
       <c r="CE6" t="n">
-        <v>5.918579848440686e-09</v>
+        <v>2.56876742099621e-09</v>
       </c>
       <c r="CF6" t="n">
-        <v>7.504578292127917e-09</v>
+        <v>2.927950992770434e-09</v>
       </c>
       <c r="CG6" t="n">
-        <v>9.832712422053191e-11</v>
+        <v>3.437959250618405e-09</v>
       </c>
       <c r="CH6" t="n">
-        <v>8.922882877016036e-09</v>
+        <v>1.32867628011013e-09</v>
       </c>
       <c r="CI6" t="n">
-        <v>8.416177088577115e-09</v>
+        <v>1.009641745208789e-10</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.977520230373898e-09</v>
+        <v>1.30050903379697e-09</v>
       </c>
       <c r="CK6" t="n">
-        <v>4.325453772935361e-09</v>
+        <v>1.126950865959486e-09</v>
       </c>
       <c r="CL6" t="n">
-        <v>3.919524260709295e-09</v>
+        <v>3.081433552765134e-09</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.069810462439591e-08</v>
+        <v>3.611400511971397e-09</v>
       </c>
       <c r="CN6" t="n">
-        <v>2.077525174115635e-08</v>
+        <v>4.294759214928945e-09</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.247319358910204e-09</v>
+        <v>4.444315471197058e-10</v>
       </c>
       <c r="CP6" t="n">
-        <v>3.285986593937196e-09</v>
+        <v>3.82372267182518e-09</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.15246638898725e-08</v>
+        <v>1.02777641952656e-09</v>
       </c>
       <c r="CR6" t="n">
-        <v>5.864860153081963e-09</v>
+        <v>1.811156558062521e-09</v>
       </c>
       <c r="CS6" t="n">
-        <v>5.512050371692112e-09</v>
+        <v>3.984619745267537e-09</v>
       </c>
       <c r="CT6" t="n">
-        <v>5.338226527484835e-10</v>
+        <v>1.398451399126088e-08</v>
       </c>
       <c r="CU6" t="n">
-        <v>8.328266964952036e-09</v>
+        <v>1.574323560404878e-09</v>
       </c>
       <c r="CV6" t="n">
-        <v>4.225361394105676e-09</v>
+        <v>4.428178101978375e-10</v>
       </c>
       <c r="CW6" t="n">
-        <v>5.111162160176264e-09</v>
+        <v>2.344104910179112e-09</v>
       </c>
       <c r="CX6" t="n">
-        <v>8.89301787765362e-09</v>
+        <v>2.282960931410116e-09</v>
       </c>
       <c r="CY6" t="n">
-        <v>5.174749517777855e-10</v>
+        <v>5.995360652377713e-09</v>
       </c>
       <c r="CZ6" t="n">
-        <v>9.236947207114099e-09</v>
+        <v>2.067513493742013e-09</v>
       </c>
       <c r="DA6" t="n">
-        <v>8.730438594284351e-09</v>
+        <v>4.80149087156434e-10</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.185671116843423e-09</v>
+        <v>5.381162182516164e-10</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.668081089396424e-09</v>
+        <v>1.078948930199886e-09</v>
       </c>
       <c r="DD6" t="n">
-        <v>8.062348122450658e-09</v>
+        <v>2.132343190908159e-09</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.144078876080812e-08</v>
+        <v>3.204592369243642e-09</v>
       </c>
       <c r="DF6" t="n">
-        <v>2.833126089285543e-08</v>
+        <v>1.929538473444126e-10</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.386304049333376e-08</v>
+        <v>6.905413130198212e-09</v>
       </c>
       <c r="DH6" t="n">
-        <v>3.57958152008564e-09</v>
+        <v>1.956949802206509e-08</v>
       </c>
       <c r="DI6" t="n">
-        <v>8.464079215286802e-09</v>
+        <v>8.926531513964164e-09</v>
       </c>
       <c r="DJ6" t="n">
-        <v>4.706019129940842e-09</v>
+        <v>1.270641369899295e-10</v>
       </c>
       <c r="DK6" t="n">
-        <v>2.015706712654719e-09</v>
+        <v>6.366768889876084e-09</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.330629495477353e-09</v>
+        <v>1.449329189995296e-08</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.544410932474705e-09</v>
+        <v>3.808410253824945e-10</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.81986781200294e-09</v>
+        <v>4.941517750545188e-10</v>
       </c>
       <c r="DO6" t="n">
-        <v>2.460547321447848e-09</v>
+        <v>6.106687933105093e-10</v>
       </c>
       <c r="DP6" t="n">
-        <v>2.127127141093865e-09</v>
+        <v>4.423536204001266e-09</v>
       </c>
       <c r="DQ6" t="n">
-        <v>3.021463967911586e-09</v>
+        <v>3.71230113316301e-09</v>
       </c>
       <c r="DR6" t="n">
-        <v>4.045106472005955e-09</v>
+        <v>2.976133561816141e-09</v>
       </c>
       <c r="DS6" t="n">
-        <v>7.406519841879344e-09</v>
+        <v>3.050377950231109e-09</v>
       </c>
       <c r="DT6" t="n">
-        <v>3.595261643951631e-09</v>
+        <v>9.455171090522185e-10</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.150435124941396e-08</v>
+        <v>7.132394119757635e-10</v>
       </c>
       <c r="DV6" t="n">
-        <v>3.280571814201494e-09</v>
+        <v>5.151413517978654e-09</v>
       </c>
       <c r="DW6" t="n">
-        <v>9.746352613859699e-10</v>
+        <v>6.736547986108121e-10</v>
       </c>
       <c r="DX6" t="n">
-        <v>4.652052965070652e-09</v>
+        <v>5.837549110765394e-09</v>
       </c>
       <c r="DY6" t="n">
-        <v>6.508640293390044e-10</v>
+        <v>2.769275697644957e-09</v>
       </c>
       <c r="DZ6" t="n">
-        <v>7.012006530970893e-10</v>
+        <v>2.140520649618338e-09</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.398245741413007e-09</v>
+        <v>7.555020609117946e-09</v>
       </c>
       <c r="EB6" t="n">
-        <v>5.946945158541439e-10</v>
+        <v>4.249982588078183e-09</v>
       </c>
       <c r="EC6" t="n">
-        <v>3.181190588730232e-10</v>
+        <v>1.177591357759411e-09</v>
       </c>
       <c r="ED6" t="n">
-        <v>4.343528869910074e-10</v>
+        <v>2.704305224199288e-09</v>
       </c>
       <c r="EE6" t="n">
-        <v>4.535140263328685e-09</v>
+        <v>1.788403314328946e-09</v>
       </c>
       <c r="EF6" t="n">
-        <v>8.34768432156352e-09</v>
+        <v>1.334017896148509e-09</v>
       </c>
       <c r="EG6" t="n">
-        <v>1.660161119687587e-09</v>
+        <v>2.412897659453961e-10</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.031422236508206e-08</v>
+        <v>1.527795778777374e-09</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.00029984295702e-10</v>
+        <v>4.955610588552872e-09</v>
       </c>
       <c r="EJ6" t="n">
-        <v>6.316986489451892e-09</v>
+        <v>2.998583381597086e-09</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.747134525942329e-08</v>
+        <v>5.684587800480756e-10</v>
       </c>
       <c r="EL6" t="n">
-        <v>3.664767600497498e-09</v>
+        <v>8.399044792994914e-10</v>
       </c>
       <c r="EM6" t="n">
-        <v>3.010707516626354e-10</v>
+        <v>1.5653571772134e-09</v>
       </c>
       <c r="EN6" t="n">
-        <v>2.406032706403494e-09</v>
+        <v>1.493554280251885e-09</v>
       </c>
       <c r="EO6" t="n">
-        <v>3.152816230311828e-09</v>
+        <v>9.6629004797677e-10</v>
       </c>
       <c r="EP6" t="n">
-        <v>5.787880397178924e-09</v>
+        <v>9.762283204040045e-10</v>
       </c>
       <c r="EQ6" t="n">
-        <v>8.38014635462514e-09</v>
+        <v>2.588678826853652e-09</v>
       </c>
       <c r="ER6" t="n">
-        <v>5.948431525126807e-09</v>
+        <v>2.843739466129591e-09</v>
       </c>
       <c r="ES6" t="n">
-        <v>3.393351377667386e-09</v>
+        <v>1.143183148144544e-08</v>
       </c>
       <c r="ET6" t="n">
-        <v>2.376555841010486e-09</v>
+        <v>1.716329300904818e-10</v>
       </c>
       <c r="EU6" t="n">
-        <v>4.115187302033974e-09</v>
+        <v>6.657298601275841e-10</v>
       </c>
       <c r="EV6" t="n">
-        <v>5.667347924287469e-09</v>
+        <v>4.362514349764979e-09</v>
       </c>
       <c r="EW6" t="n">
-        <v>2.519597197547796e-09</v>
+        <v>3.519905478199803e-10</v>
       </c>
       <c r="EX6" t="n">
-        <v>4.928802255221854e-09</v>
+        <v>1.220063161611051e-09</v>
       </c>
       <c r="EY6" t="n">
-        <v>4.935473807421431e-09</v>
+        <v>2.663467224550686e-09</v>
       </c>
       <c r="EZ6" t="n">
-        <v>8.135165430189772e-09</v>
+        <v>2.618745220672736e-09</v>
       </c>
       <c r="FA6" t="n">
-        <v>1.697614160356409e-09</v>
+        <v>5.005321934703488e-09</v>
       </c>
       <c r="FB6" t="n">
-        <v>6.601573065978528e-09</v>
+        <v>1.16935972016563e-09</v>
       </c>
       <c r="FC6" t="n">
-        <v>6.954945064308049e-09</v>
+        <v>7.478542229932827e-10</v>
       </c>
       <c r="FD6" t="n">
-        <v>2.100288165607367e-09</v>
+        <v>1.21424847954188e-09</v>
       </c>
       <c r="FE6" t="n">
-        <v>4.34340652333276e-09</v>
+        <v>1.191473919526231e-09</v>
       </c>
       <c r="FF6" t="n">
-        <v>7.839853211066838e-09</v>
+        <v>3.168578288637036e-09</v>
       </c>
       <c r="FG6" t="n">
-        <v>4.933469188728168e-09</v>
+        <v>1.145798567137035e-09</v>
       </c>
       <c r="FH6" t="n">
-        <v>5.405309533301761e-09</v>
+        <v>1.343182898239093e-09</v>
       </c>
       <c r="FI6" t="n">
-        <v>5.921775070305557e-09</v>
+        <v>4.429608679856756e-09</v>
       </c>
       <c r="FJ6" t="n">
-        <v>3.179191576663243e-09</v>
+        <v>8.1506623672567e-09</v>
       </c>
       <c r="FK6" t="n">
-        <v>9.904488784684418e-09</v>
+        <v>2.711676660993589e-09</v>
       </c>
       <c r="FL6" t="n">
-        <v>2.665683895841653e-09</v>
+        <v>1.523731585351129e-09</v>
       </c>
       <c r="FM6" t="n">
-        <v>4.74165506858526e-09</v>
+        <v>6.745779934647089e-09</v>
       </c>
       <c r="FN6" t="n">
-        <v>6.101716909512334e-09</v>
+        <v>2.078452299159039e-09</v>
       </c>
       <c r="FO6" t="n">
-        <v>7.936726831303531e-09</v>
+        <v>2.788446584744975e-09</v>
       </c>
       <c r="FP6" t="n">
-        <v>3.971689199744333e-09</v>
+        <v>3.582608210095373e-09</v>
       </c>
       <c r="FQ6" t="n">
-        <v>1.254917947335343e-08</v>
+        <v>2.259338049981352e-09</v>
       </c>
       <c r="FR6" t="n">
-        <v>2.211181016065211e-09</v>
+        <v>5.996675378483474e-10</v>
       </c>
       <c r="FS6" t="n">
-        <v>6.113000772245414e-09</v>
+        <v>5.77611847241144e-10</v>
       </c>
       <c r="FT6" t="n">
-        <v>3.023805428270521e-09</v>
+        <v>7.337473295621066e-09</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.326226239939388e-08</v>
+        <v>2.902427187478906e-09</v>
       </c>
       <c r="FV6" t="n">
-        <v>5.082423371050027e-10</v>
+        <v>3.768966028161458e-09</v>
       </c>
       <c r="FW6" t="n">
-        <v>3.951444949024108e-09</v>
+        <v>6.790213946672452e-10</v>
       </c>
       <c r="FX6" t="n">
-        <v>4.63070559675316e-09</v>
+        <v>2.417665623255516e-09</v>
       </c>
       <c r="FY6" t="n">
-        <v>2.15842033135516e-09</v>
+        <v>4.906852701935804e-09</v>
       </c>
       <c r="FZ6" t="n">
-        <v>1.721138676025191e-09</v>
+        <v>2.103322627178272e-09</v>
       </c>
       <c r="GA6" t="n">
-        <v>6.497763993529304e-10</v>
+        <v>2.019933331709467e-09</v>
       </c>
       <c r="GB6" t="n">
-        <v>3.233132206403866e-09</v>
+        <v>1.376347036341485e-09</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.45711820387362e-09</v>
+        <v>6.186919865314167e-10</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.929790771626472e-09</v>
+        <v>1.461768928123774e-09</v>
       </c>
       <c r="GE6" t="n">
-        <v>5.124948465606849e-09</v>
+        <v>8.08846589706036e-09</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.659647086427185e-09</v>
+        <v>1.118642511954704e-09</v>
       </c>
       <c r="GG6" t="n">
-        <v>3.14300541148782e-09</v>
+        <v>2.423667933015849e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.003270802786573768</v>
+        <v>0.0005916834343224764</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00305942865088582</v>
+        <v>0.004438782576471567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001531691872514784</v>
+        <v>4.768528378917836e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003471473231911659</v>
+        <v>0.00252829841338098</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005973843857645988</v>
+        <v>0.0009419451234862208</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002492654835805297</v>
+        <v>0.002597602782770991</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001872993772849441</v>
+        <v>0.0002836819330696017</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001190303824841976</v>
+        <v>0.0005536895478144288</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007514058146625757</v>
+        <v>6.077023135730997e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001915395725518465</v>
+        <v>0.001145927468314767</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001562277902849019</v>
+        <v>0.003035661764442921</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002688074484467506</v>
+        <v>0.0005016418872401118</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00358187360689044</v>
+        <v>0.002707098377868533</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006748354528099298</v>
+        <v>0.001616312307305634</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004073241259902716</v>
+        <v>0.003468028269708157</v>
       </c>
       <c r="P7" t="n">
-        <v>6.682550156256184e-05</v>
+        <v>5.357745249057189e-05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002019313396885991</v>
+        <v>6.377536919899285e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>0.007276355754584074</v>
+        <v>0.0001236910466104746</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001666746335104108</v>
+        <v>0.000444078556029126</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0008537239627912641</v>
+        <v>0.0007147785509005189</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0005859431112185121</v>
+        <v>0.0001222066057380289</v>
       </c>
       <c r="V7" t="n">
-        <v>0.004296097904443741</v>
+        <v>0.0005501176347024739</v>
       </c>
       <c r="W7" t="n">
-        <v>0.003434181679040194</v>
+        <v>7.009821274550632e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002320514991879463</v>
+        <v>0.0003892426611855626</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0004265748139005154</v>
+        <v>0.0003755130455829203</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0003758433158509433</v>
+        <v>8.036923827603459e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001184502500109375</v>
+        <v>0.0002914825745392591</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.678571036085486e-06</v>
+        <v>0.0002322934160474688</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.001515733893029392</v>
+        <v>0.0008784595993347466</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0004669808549806476</v>
+        <v>0.0001572260953253135</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0002790925791487098</v>
+        <v>0.0002343910455238074</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001565465703606606</v>
+        <v>0.001041162759065628</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.001919411704875529</v>
+        <v>0.0006082002655602992</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.001189816277474165</v>
+        <v>0.0004435412120074034</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.002569087082520127</v>
+        <v>0.0006703108083456755</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.003299165982753038</v>
+        <v>5.95259916735813e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0007443666690960526</v>
+        <v>0.000358782010152936</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.001137918909080327</v>
+        <v>0.0006576689193025231</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0006428745691664517</v>
+        <v>5.909964966122061e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.001252929680049419</v>
+        <v>5.278065509628505e-05</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0009419982088729739</v>
+        <v>1.524917024653405e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.003805691376328468</v>
+        <v>0.0006242575473152101</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0008763755322434008</v>
+        <v>0.000235490093473345</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.001843655365519226</v>
+        <v>0.0002472518244758248</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0006969242240302265</v>
+        <v>0.0005146473413333297</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0009594824514351785</v>
+        <v>0.0005399301880970597</v>
       </c>
       <c r="AU7" t="n">
-        <v>2.928898902609944e-05</v>
+        <v>0.003254615468904376</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.001424828311428428</v>
+        <v>0.000232301201322116</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.002963666804134846</v>
+        <v>6.649660645052791e-05</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0009381469571962953</v>
+        <v>0.0004725870385300368</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.004235603380948305</v>
+        <v>0.001212977222166955</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0003644875250756741</v>
+        <v>0.0002487486344762146</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0008291876874864101</v>
+        <v>0.0006159049225971103</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.003097847336903214</v>
+        <v>0.0003905503253918141</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0005047652521170676</v>
+        <v>0.0004446863604243845</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.001777829718776047</v>
+        <v>0.0006468833307735622</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.001547166844829917</v>
+        <v>0.001011173240840435</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.000373382237739861</v>
+        <v>0.00126250647008419</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.002064011991024017</v>
+        <v>0.001835796283558011</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.001837389427237213</v>
+        <v>0.001095010084100068</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.001505472464486957</v>
+        <v>0.0001855713489931077</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.001312511274591088</v>
+        <v>0.0008811351144686341</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.001377489999867976</v>
+        <v>9.357676754007116e-05</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.000248397293034941</v>
+        <v>0.0001789161178749055</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.001368017983622849</v>
+        <v>0.0005401819362305105</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.001700152992270887</v>
+        <v>0.0003837904951069504</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.000648770947009325</v>
+        <v>0.0007635062793269753</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0002811823505908251</v>
+        <v>0.0002460531250108033</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.001171456533484161</v>
+        <v>0.0002787993289530277</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.001118057174608111</v>
+        <v>0.0004864093498326838</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.002159010618925095</v>
+        <v>5.238225639914162e-05</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.000827422714792192</v>
+        <v>0.0003813444054685533</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0004586648719850928</v>
+        <v>0.0003527153166942298</v>
       </c>
       <c r="BV7" t="n">
-        <v>8.159738354152068e-05</v>
+        <v>0.001418260973878205</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.001460359548218548</v>
+        <v>0.00019889060058631</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.001913891523145139</v>
+        <v>0.0001946736301761121</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.002814144594594836</v>
+        <v>0.0003777304664254189</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.000392981746699661</v>
+        <v>9.601179044693708e-06</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0001370033714920282</v>
+        <v>0.0001746733614709228</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0007915376336313784</v>
+        <v>0.0004763617180287838</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.005167894065380096</v>
+        <v>0.0003450913354754448</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0003290700842626393</v>
+        <v>0.0001929284480866045</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.000918398320209235</v>
+        <v>0.0008166501065716147</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.000250224256888032</v>
+        <v>0.0004272531077731401</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0007343412144109607</v>
+        <v>0.0004526117700152099</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.001098884618841112</v>
+        <v>0.0002079127880278975</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.001247102045454085</v>
+        <v>0.0004358662699814886</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0003498483274597675</v>
+        <v>0.0001911396975629032</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0003692050522658974</v>
+        <v>3.428128911764361e-05</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.001006438513286412</v>
+        <v>0.0001410286058671772</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.00152372766751796</v>
+        <v>0.0004147145082242787</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.002374502597376704</v>
+        <v>0.0001646398304728791</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0004332396783865988</v>
+        <v>0.0002400665107415989</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0005503409774973989</v>
+        <v>0.0003342645359225571</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.00201356690376997</v>
+        <v>5.933157081017271e-05</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.001263299258425832</v>
+        <v>0.0003390679194126278</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0006974067655391991</v>
+        <v>0.000388199114240706</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0006343722925521433</v>
+        <v>0.0004225945158395916</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0006760538672097027</v>
+        <v>4.509499558480456e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0005889285239391029</v>
+        <v>0.000132233661133796</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.001328314072452486</v>
+        <v>0.0006289189914241433</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0001678699336480349</v>
+        <v>0.0004380066820885986</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0005891885957680643</v>
+        <v>0.0006258611101657152</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.001540022087283432</v>
+        <v>0.0001001051714411005</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.001643185736611485</v>
+        <v>0.000450568797532469</v>
       </c>
       <c r="DB7" t="n">
-        <v>7.04122066963464e-05</v>
+        <v>0.0001857163733802736</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0002624041808303446</v>
+        <v>0.000222424219828099</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.001571468077600002</v>
+        <v>5.994367529638112e-05</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.001668285578489304</v>
+        <v>0.0003745141439139843</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.002987087238579988</v>
+        <v>0.0007922614458948374</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.002965278225019574</v>
+        <v>0.0001775588898453861</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.003164039459079504</v>
+        <v>0.000628966954536736</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.838814932852983e-05</v>
+        <v>9.028706699609756e-06</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0006763734272681177</v>
+        <v>5.62264394829981e-05</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.00123888161033392</v>
+        <v>0.000536660139914602</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0003035273402929306</v>
+        <v>0.0001204370928462595</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.00117092183791101</v>
+        <v>0.0001188980095321313</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0001862476347014308</v>
+        <v>0.0002031360054388642</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0004220119444653392</v>
+        <v>8.227583748521283e-06</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0001382828777423128</v>
+        <v>0.0005501583218574524</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.000271799392066896</v>
+        <v>0.0008986341417767107</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0002574239624664187</v>
+        <v>0.0001597781665623188</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0003090187383349985</v>
+        <v>0.0001399182801833376</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.001068790908902884</v>
+        <v>1.085067196981981e-06</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.001660597161389887</v>
+        <v>3.531140464474447e-05</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.00110017484985292</v>
+        <v>0.0002450772153679281</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0004837088927160949</v>
+        <v>0.0002515431551728398</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0005477240774780512</v>
+        <v>0.000141710537718609</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0009821280837059021</v>
+        <v>0.0009242556407116354</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.001461624400690198</v>
+        <v>0.0002645978238433599</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0005975627573207021</v>
+        <v>0.0002430656895739958</v>
       </c>
       <c r="EB7" t="n">
-        <v>3.672270395327359e-05</v>
+        <v>2.060552651528269e-05</v>
       </c>
       <c r="EC7" t="n">
-        <v>5.269463872537017e-05</v>
+        <v>3.190349525539204e-05</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0007482565706595778</v>
+        <v>0.0001882492942968383</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.002541596302762628</v>
+        <v>9.647782280808315e-05</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0004272783407941461</v>
+        <v>0.0001487289264332503</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.001249019172973931</v>
+        <v>0.0003212378651369363</v>
       </c>
       <c r="EH7" t="n">
-        <v>8.767256076680496e-05</v>
+        <v>0.0001408319221809506</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0004048858536407351</v>
+        <v>0.0001036640460370108</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.001695174956694245</v>
+        <v>6.393983494490385e-05</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.001271855086088181</v>
+        <v>0.0002347306435694918</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0004761265299748629</v>
+        <v>0.0003203991800546646</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0007752986275590956</v>
+        <v>0.0001333008549408987</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.001662371680140495</v>
+        <v>5.129905184730887e-05</v>
       </c>
       <c r="EO7" t="n">
-        <v>6.306973227765411e-05</v>
+        <v>0.0003053874825127423</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.001196974772028625</v>
+        <v>0.0005265709478408098</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.002656783210113645</v>
+        <v>0.0001935545296873897</v>
       </c>
       <c r="ER7" t="n">
-        <v>4.757638089358807e-05</v>
+        <v>0.0004107393615413457</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.001339376787655056</v>
+        <v>0.0005374421598389745</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.003149298252537847</v>
+        <v>0.0009423760930076241</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0006961702019907534</v>
+        <v>0.000338124023983255</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.002081112470477819</v>
+        <v>0.0004788956721313298</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0005144102615304291</v>
+        <v>0.0001422571367584169</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0003201858198735863</v>
+        <v>0.0001123208276112564</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.001391184283420444</v>
+        <v>0.0006410341011360288</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0003260676749050617</v>
+        <v>0.0002686849620658904</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.000129576917970553</v>
+        <v>0.0004563833936117589</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001280748518183827</v>
+        <v>0.0001871742715593427</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.001152455224655569</v>
+        <v>0.0004752144741360098</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0001850885746534914</v>
+        <v>0.000282593973679468</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.0002363062230870128</v>
+        <v>0.0001464868109906092</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.001811580848880112</v>
+        <v>0.0002384131366852671</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0003816515963990241</v>
+        <v>0.0001635726657696068</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.001580385724082589</v>
+        <v>0.000383746693842113</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0009673359454609454</v>
+        <v>0.000575176440179348</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0006643203087151051</v>
+        <v>0.0005547701730392873</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.001645815675146878</v>
+        <v>4.767014615936205e-05</v>
       </c>
       <c r="FL7" t="n">
-        <v>5.478218372445554e-05</v>
+        <v>0.0001854507718235254</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0004632494528777897</v>
+        <v>3.262590689701028e-05</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.003413753816857934</v>
+        <v>0.000215217616641894</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0005648915539495647</v>
+        <v>0.0002567985211499035</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0002494239015504718</v>
+        <v>0.0003152037097606808</v>
       </c>
       <c r="FQ7" t="n">
-        <v>3.008340718224645e-05</v>
+        <v>0.0001847070961957797</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.001015046960674226</v>
+        <v>3.624496821430512e-05</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.001127492520026863</v>
+        <v>0.0001160726096713915</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0002480242401361465</v>
+        <v>0.001517574302852154</v>
       </c>
       <c r="FU7" t="n">
-        <v>8.762503421166912e-05</v>
+        <v>0.0003458997525740415</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0004138455260545015</v>
+        <v>0.0002381361555308104</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0001039502094499767</v>
+        <v>5.214747216086835e-05</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.00254297605715692</v>
+        <v>7.919687777757645e-05</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0006760935066267848</v>
+        <v>0.0005082349525764585</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.00135301670525223</v>
+        <v>0.0003990739351138473</v>
       </c>
       <c r="GA7" t="n">
-        <v>4.583162080962211e-05</v>
+        <v>0.0002504414005670696</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0008747593965381384</v>
+        <v>0.0003344491124153137</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.000684585131239146</v>
+        <v>0.0001295205438509583</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0004066730907652527</v>
+        <v>0.0004116432392038405</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0006831121863797307</v>
+        <v>0.001591982552781701</v>
       </c>
       <c r="GF7" t="n">
-        <v>5.419647641247138e-05</v>
+        <v>0.0005640847375616431</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0007254213560372591</v>
+        <v>0.0002111824869643897</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0005402206443250179</v>
+        <v>0.003056631190702319</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003510403912514448</v>
+        <v>0.002407655352726579</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00435767462477088</v>
+        <v>0.003707921132445335</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005065363831818104</v>
+        <v>0.004515570588409901</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0003578171599656343</v>
+        <v>0.001454193610697985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01264011394232512</v>
+        <v>0.001116064959205687</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003199506085366011</v>
+        <v>0.0005275770090520382</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01048719231039286</v>
+        <v>0.002339033875614405</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004378388170152903</v>
+        <v>0.0006316472426988184</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001556742237880826</v>
+        <v>0.004218565300107002</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001056191045790911</v>
+        <v>0.002729126019403338</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003658093046396971</v>
+        <v>0.002876373939216137</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006867545656859875</v>
+        <v>0.004481079988181591</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0009410677012056112</v>
+        <v>0.001821798738092184</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01180837210267782</v>
+        <v>0.0002525663294363767</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00245367269963026</v>
+        <v>0.0008574443054385483</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01071886532008648</v>
+        <v>0.002348223933950067</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005659607239067554</v>
+        <v>0.0005356139154173434</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001883028307929635</v>
+        <v>0.001351801911368966</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0004625660367310047</v>
+        <v>0.0002467178273946047</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0006741934921592474</v>
+        <v>0.0001577145303599536</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001846464234404266</v>
+        <v>0.0001648985198698938</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002887403825297952</v>
+        <v>0.00158423138782382</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002458830131217837</v>
+        <v>0.0005601029261015356</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0006691257003694773</v>
+        <v>0.0003159969637636095</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0004262530710548162</v>
+        <v>0.00248134951107204</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001406663097441196</v>
+        <v>0.0001331778476014733</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.118769382126629e-05</v>
+        <v>2.302887514815666e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0001707388582872227</v>
+        <v>0.001664615701884031</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0001478959165979177</v>
+        <v>4.27092527388595e-05</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.003013220615684986</v>
+        <v>0.0007583694532513618</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.003286538645625114</v>
+        <v>0.0009686078992672265</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.001228619832545519</v>
+        <v>0.000315582612529397</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.002292740857228637</v>
+        <v>0.000459086790215224</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0003943963092751801</v>
+        <v>0.000718632189091295</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0001014635781757534</v>
+        <v>0.000387834501452744</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0001251880894415081</v>
+        <v>0.0002927646273747087</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.001946861622855067</v>
+        <v>0.000733603781554848</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.002235425636172295</v>
+        <v>6.202310032676905e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0007146954303607345</v>
+        <v>0.0005788474809378386</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.004004550166428089</v>
+        <v>1.411695666320156e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.000793699873611331</v>
+        <v>0.0006255034822970629</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.440115738660097e-06</v>
+        <v>0.0009091212414205074</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0006436175899580121</v>
+        <v>0.0002451956679578871</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.001169727300293744</v>
+        <v>5.20348985446617e-05</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0001900636707432568</v>
+        <v>0.0001724029862089083</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.001133748912252486</v>
+        <v>0.0008158014970831573</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.004462978336960077</v>
+        <v>0.001962764887139201</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0002553415251895785</v>
+        <v>0.003919837530702353</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.610904529225081e-05</v>
+        <v>0.0007316097617149353</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.01015977747738361</v>
+        <v>0.001596036716364324</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.000508295139297843</v>
+        <v>0.0007806008798070252</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.004453743807971478</v>
+        <v>0.002325221430510283</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.002212544437497854</v>
+        <v>0.0007876639720052481</v>
       </c>
       <c r="BC8" t="n">
-        <v>7.510588329751045e-05</v>
+        <v>0.003893561894074082</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.000991721753962338</v>
+        <v>0.001565909129567444</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.002072182251140475</v>
+        <v>0.0003718304797075689</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.001967190764844418</v>
+        <v>0.0006262526148930192</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.001026329584419727</v>
+        <v>0.00301508023403585</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.001146392431110144</v>
+        <v>0.0001092072780011222</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.002458866685628891</v>
+        <v>0.002397224539890885</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.003128849901258945</v>
+        <v>0.00414732564240694</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0007454208680428565</v>
+        <v>9.285016858484596e-05</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.001893467269837856</v>
+        <v>0.0002104879822582006</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0008719769539311528</v>
+        <v>0.0007859623292461038</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.001377953798510134</v>
+        <v>0.001496455166488886</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.002301952335983515</v>
+        <v>0.001222460647113621</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.001595801440998912</v>
+        <v>0.002064485335722566</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.001234589261002839</v>
+        <v>0.0004360888560768217</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.001007472979836166</v>
+        <v>0.0010143315885216</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0005972731742076576</v>
+        <v>0.0006719079683534801</v>
       </c>
       <c r="BT8" t="n">
-        <v>6.075977580621839e-06</v>
+        <v>0.0008714803261682391</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.001672933925874531</v>
+        <v>0.0004223606083542109</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0003323706914670765</v>
+        <v>0.001057228771969676</v>
       </c>
       <c r="BW8" t="n">
-        <v>4.86123826703988e-05</v>
+        <v>0.001045399461872876</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0007403501076623797</v>
+        <v>0.00157825113274157</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0007200741092674434</v>
+        <v>0.0006772530032321811</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.003656546585261822</v>
+        <v>0.0001639558031456545</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.001541982870548964</v>
+        <v>0.0008841666276566684</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.003085117554292083</v>
+        <v>0.00303935119882226</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.002511768601834774</v>
+        <v>0.00102838221937418</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0006450613145716488</v>
+        <v>0.0006639238563366234</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.002586250193417072</v>
+        <v>0.0006374602089636028</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.0008016826468519866</v>
+        <v>0.0009465898619964719</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.001731800963170826</v>
+        <v>0.0008338429615832865</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0002700485347304493</v>
+        <v>0.0005319378105923533</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.002906883368268609</v>
+        <v>0.0004727168125100434</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0007354164845310152</v>
+        <v>0.0005744748050346971</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.001745979301631451</v>
+        <v>0.0007203768473118544</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0004000472836196423</v>
+        <v>0.0007666764431633055</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.001607014914043248</v>
+        <v>0.001759448205120862</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.001883060554973781</v>
+        <v>0.0006180766504257917</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.002846304094418883</v>
+        <v>1.092915772460401e-05</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0002098525874316692</v>
+        <v>0.000590965268202126</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.002064462518319488</v>
+        <v>0.0004033571167383343</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.002289732918143272</v>
+        <v>0.0006380473496392369</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0006159176118671894</v>
+        <v>0.0004867935203947127</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.000949833367485553</v>
+        <v>0.001262330333702266</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.001097535248845816</v>
+        <v>0.0009958542650565505</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0007826151559129357</v>
+        <v>0.000706920400261879</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.002984537975862622</v>
+        <v>0.00041413409053348</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.0007464856607839465</v>
+        <v>0.0004941409570164979</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.001788853667676449</v>
+        <v>0.000607061549089849</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0002854035119526088</v>
+        <v>0.0004445733793545514</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.002886385889723897</v>
+        <v>0.0002733468718361109</v>
       </c>
       <c r="DB8" t="n">
-        <v>6.386627501342446e-05</v>
+        <v>0.0002230076206615195</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.002300786087289453</v>
+        <v>0.0005645189085043967</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.0004734764224849641</v>
+        <v>0.000917041499633342</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.003297129413112998</v>
+        <v>0.0001755141420289874</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0008391381124965847</v>
+        <v>0.003237738972529769</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.00127885234542191</v>
+        <v>0.0007703108713030815</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.001546750543639064</v>
+        <v>0.001108673051930964</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.002242955844849348</v>
+        <v>0.001304759411141276</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.002311587799340487</v>
+        <v>0.002826713025569916</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0002795173786580563</v>
+        <v>0.003470707684755325</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0008842346724122763</v>
+        <v>7.487695256713778e-05</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0004641704144887626</v>
+        <v>0.0007565357955172658</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.001415752107277513</v>
+        <v>0.0003096071886830032</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.002438526833429933</v>
+        <v>0.0004382555489428341</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0008158982964232564</v>
+        <v>0.001313537126407027</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0005379091016948223</v>
+        <v>1.262589648831636e-05</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0006120541947893798</v>
+        <v>0.001173562370240688</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.003376474371179938</v>
+        <v>0.0002014766359934583</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0004650943737942725</v>
+        <v>0.0008737503085285425</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.001536171534098685</v>
+        <v>0.0004740615841001272</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0003606743121054024</v>
+        <v>0.0005387315759435296</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0002785393735393882</v>
+        <v>0.000313761382130906</v>
       </c>
       <c r="DX8" t="n">
-        <v>9.207026596413925e-05</v>
+        <v>9.751955803949386e-05</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.001301339128986001</v>
+        <v>0.0005775960744358599</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.002146026818081737</v>
+        <v>0.0005660286988131702</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0009885254548862576</v>
+        <v>5.750946002081037e-05</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0001133899713749997</v>
+        <v>0.001589893829077482</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0002138837007805705</v>
+        <v>0.0003979878383688629</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.001783241517841816</v>
+        <v>0.001552477246150374</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.001389234676025808</v>
+        <v>0.0009945478523150086</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0009026831248775125</v>
+        <v>0.0006121725309640169</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.002277446445077658</v>
+        <v>0.0005497069214470685</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0005103591829538345</v>
+        <v>0.0009139312896877527</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.002092489041388035</v>
+        <v>0.001198004581965506</v>
       </c>
       <c r="EJ8" t="n">
-        <v>6.871507503092289e-05</v>
+        <v>0.0001657066895859316</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.002701516263186932</v>
+        <v>0.0004149267915636301</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0001198574536829256</v>
+        <v>0.0004773535183630884</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.002105850493535399</v>
+        <v>0.0006967423832975328</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.0006903819157741964</v>
+        <v>0.001281339325942099</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0004103451501578093</v>
+        <v>0.0004920762148685753</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0003822350117843598</v>
+        <v>1.56070600496605e-05</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.002738281385973096</v>
+        <v>0.00105744565371424</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0001196336233988404</v>
+        <v>0.0006679837824776769</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.00171548395883292</v>
+        <v>0.0002217714500147849</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0007759676082059741</v>
+        <v>0.0001855798182077706</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.001247259904630482</v>
+        <v>0.000263626454398036</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0002200910239480436</v>
+        <v>0.002371425041928887</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.0002029751194640994</v>
+        <v>0.0006622832734137774</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0006117367884144187</v>
+        <v>0.0005811115261167288</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.002617861609905958</v>
+        <v>0.0005172282690182328</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.001318214694038033</v>
+        <v>0.0008175960392691195</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.001941440626978874</v>
+        <v>0.0006666056578978896</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0004107147105969489</v>
+        <v>0.0003371754137333483</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.002569005824625492</v>
+        <v>0.0004862587666139007</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0002195030829170719</v>
+        <v>0.0003331667103338987</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.002054312964901328</v>
+        <v>0.000599715334828943</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.0003021061420440674</v>
+        <v>0.001029135892167687</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0003742164699360728</v>
+        <v>0.0001822594058467075</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.003301738994196057</v>
+        <v>0.0003790936898440123</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.0006940519087947905</v>
+        <v>0.0002482401323504746</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.003107551485300064</v>
+        <v>0.001244991668500006</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.001338714500889182</v>
+        <v>0.0009045028127729893</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0006837218534201384</v>
+        <v>0.0006267534918151796</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0005342690856195986</v>
+        <v>0.0006474852561950684</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.003170076757669449</v>
+        <v>0.0005739645566791296</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.0002916195662692189</v>
+        <v>0.001464909873902798</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0003042457392439246</v>
+        <v>0.001983435591682792</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.002590949414297938</v>
+        <v>0.001273459522053599</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.001329988241195679</v>
+        <v>0.002605878980830312</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.002178682712838054</v>
+        <v>0.001184012973681092</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0002352608717046678</v>
+        <v>5.317290197126567e-05</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.007554054260253906</v>
+        <v>0.001415548147633672</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.002187758916988969</v>
+        <v>0.0003511732793413103</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.003223302774131298</v>
+        <v>7.898441981524229e-05</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.001180482795462012</v>
+        <v>0.001084763556718826</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0005218322039581835</v>
+        <v>0.0006120681064203382</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0009928081417456269</v>
+        <v>0.0003602886572480202</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.002031727693974972</v>
+        <v>0.0009957391303032637</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.002005894202739</v>
+        <v>0.0007914906018413603</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.00185490632429719</v>
+        <v>0.002109637018293142</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.0008985157473944128</v>
+        <v>0.001558388117700815</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.002225163858383894</v>
+        <v>0.0002844712871592492</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0008847198914736509</v>
+        <v>0.000796083128079772</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0008796199690550566</v>
+        <v>0.0004328575450927019</v>
       </c>
     </row>
     <row r="9">
@@ -5556,3416 +5556,3416 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.006286604329943657</v>
+        <v>0.001191097544506192</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0009569191024638712</v>
+        <v>0.05022741109132767</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001741706626489758</v>
+        <v>0.00569301750510931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007513254531659186</v>
+        <v>0.01582968607544899</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01231515780091286</v>
+        <v>0.04025068879127502</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03920891880989075</v>
+        <v>0.0152417179197073</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007465614471584558</v>
+        <v>0.0029085548594594</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01662692055106163</v>
+        <v>0.005975112318992615</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006491102278232574</v>
+        <v>0.004133351147174835</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003155507147312164</v>
+        <v>0.003509336151182652</v>
       </c>
       <c r="K10" t="n">
-        <v>9.190093260258436e-05</v>
+        <v>0.03605338558554649</v>
       </c>
       <c r="L10" t="n">
-        <v>8.433067705482244e-06</v>
+        <v>0.003501357277855277</v>
       </c>
       <c r="M10" t="n">
-        <v>0.000528859265614301</v>
+        <v>0.005464003421366215</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008740838617086411</v>
+        <v>0.03433801233768463</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04113177210092545</v>
+        <v>0.01452561840415001</v>
       </c>
       <c r="P10" t="n">
-        <v>0.008489090017974377</v>
+        <v>0.0004223831929266453</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01309855189174414</v>
+        <v>0.006289922632277012</v>
       </c>
       <c r="R10" t="n">
-        <v>0.005937967915087938</v>
+        <v>0.00098752835765481</v>
       </c>
       <c r="S10" t="n">
-        <v>0.008338724263012409</v>
+        <v>0.0001753409160301089</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002621901221573353</v>
+        <v>0.009287414140999317</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001027862075716257</v>
+        <v>0.001808846718631685</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007212813943624496</v>
+        <v>0.006424360908567905</v>
       </c>
       <c r="W10" t="n">
-        <v>0.00299852853640914</v>
+        <v>0.009153062477707863</v>
       </c>
       <c r="X10" t="n">
-        <v>0.006862295791506767</v>
+        <v>0.006686713546514511</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.003362044226378202</v>
+        <v>0.003084121039137244</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.001730053103528917</v>
+        <v>0.008944260887801647</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001077993889339268</v>
+        <v>0.001229018205776811</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.003182973247021437</v>
+        <v>0.001785463653504848</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001366265350952744</v>
+        <v>0.005678755231201649</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.000496387539897114</v>
+        <v>0.0006164159858599305</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.002731946296989918</v>
+        <v>0.0001539934310130775</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.01786139607429504</v>
+        <v>0.007463855668902397</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.00843134056776762</v>
+        <v>0.0009404115262441337</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.003399393986910582</v>
+        <v>0.008253248408436775</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0115041034296155</v>
+        <v>0.0007175393984653056</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0004109744331799448</v>
+        <v>0.0002720064949244261</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.003371064551174641</v>
+        <v>0.007909615524113178</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.003958199173212051</v>
+        <v>0.008449370041489601</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.009787703864276409</v>
+        <v>0.003110982710495591</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.00490867905318737</v>
+        <v>0.001451031304895878</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.00213900045491755</v>
+        <v>0.00514703057706356</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.003462879685685039</v>
+        <v>0.006989204324781895</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.001823347294703126</v>
+        <v>0.003965099807828665</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001236883108504117</v>
+        <v>0.0003987922973465174</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.001175484503619373</v>
+        <v>0.003911431413143873</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.006727213505655527</v>
+        <v>0.007175976410508156</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.008352254517376423</v>
+        <v>0.04658491164445877</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.008666113950312138</v>
+        <v>0.005339469760656357</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.01039632316678762</v>
+        <v>0.002844769973307848</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.001076359185390174</v>
+        <v>0.007432444486767054</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01478162407875061</v>
+        <v>0.01590982265770435</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.002292047487571836</v>
+        <v>0.003975765779614449</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.008197780698537827</v>
+        <v>0.01160833891481161</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.00345269707031548</v>
+        <v>0.002475731074810028</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.001494050840847194</v>
+        <v>0.002853062469512224</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.0001983524125535041</v>
+        <v>0.009313090704381466</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.003197335405275226</v>
+        <v>0.005738446488976479</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.005573948379606009</v>
+        <v>0.0042923828586936</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.003482335479930043</v>
+        <v>0.02891380712389946</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.007041876204311848</v>
+        <v>0.006681757979094982</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0008448145817965269</v>
+        <v>0.00206645904108882</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.006061895750463009</v>
+        <v>0.01261517684906721</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.001706249080598354</v>
+        <v>0.005011040717363358</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.002302447101101279</v>
+        <v>0.006030167918652296</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.002580048982053995</v>
+        <v>0.02485455013811588</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0005254576099105179</v>
+        <v>0.005739502143114805</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.001856133574619889</v>
+        <v>0.00743191409856081</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.004589262884110212</v>
+        <v>0.01384090725332499</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.005802983418107033</v>
+        <v>0.007132110185921192</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.002182029187679291</v>
+        <v>0.005719494540244341</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.002954111201688647</v>
+        <v>0.003184293862432241</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.002876112936064601</v>
+        <v>0.0003595222369767725</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.005790644325315952</v>
+        <v>0.005570964887738228</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.002783811884000897</v>
+        <v>0.02571358904242516</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.0005773224402219057</v>
+        <v>0.01158741209656</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.008186033926904202</v>
+        <v>0.0009675708133727312</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.002660185564309359</v>
+        <v>0.007063476368784904</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01543273776769638</v>
+        <v>0.004646376706659794</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.001170312403701246</v>
+        <v>0.006346370093524456</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.006897231098264456</v>
+        <v>0.002861106535419822</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.004459161311388016</v>
+        <v>0.000342022511176765</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0006634349119849503</v>
+        <v>0.00213120155967772</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.001749502960592508</v>
+        <v>0.008271962404251099</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0009035593830049038</v>
+        <v>0.002280310494825244</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.003869788721203804</v>
+        <v>0.004655108321458101</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.002303893677890301</v>
+        <v>0.003812854643911123</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.005808231420814991</v>
+        <v>0.003491690382361412</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.001485498272813857</v>
+        <v>0.004409048706293106</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.002296776045113802</v>
+        <v>0.001025179750286043</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0001970774028450251</v>
+        <v>0.0008560515707358718</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.006536862812936306</v>
+        <v>0.01618483290076256</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.0010072011500597</v>
+        <v>0.01170648075640202</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.002577551640570164</v>
+        <v>0.001628346741199493</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.000515448278747499</v>
+        <v>0.004874995909631252</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.001791891176253557</v>
+        <v>0.00666422862559557</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.007430677302181721</v>
+        <v>0.003830478526651859</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.00425307173281908</v>
+        <v>0.00245998241007328</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.001528702559880912</v>
+        <v>0.003475156147032976</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.003439344931393862</v>
+        <v>0.004036528058350086</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0006785471923649311</v>
+        <v>0.00168539653532207</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.002642957028001547</v>
+        <v>0.005375133827328682</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.001578961964696646</v>
+        <v>0.003376675304025412</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.003080630209296942</v>
+        <v>0.007598419208079576</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.003930243663489819</v>
+        <v>0.002533584134653211</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.007443584036082029</v>
+        <v>0.004627473652362823</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0008353266166523099</v>
+        <v>0.004192303866147995</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.003893893212080002</v>
+        <v>0.002671852707862854</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0005336193135008216</v>
+        <v>0.0001382086047669873</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.005570708308368921</v>
+        <v>0.004616300109773874</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.00711560994386673</v>
+        <v>0.01387617364525795</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.01048142742365599</v>
+        <v>0.00204988825134933</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.002891006181016564</v>
+        <v>0.0259917676448822</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.00640289718285203</v>
+        <v>0.008478599600493908</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.004568213131278753</v>
+        <v>0.003122009802609682</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.003386334050446749</v>
+        <v>0.01312390714883804</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.00229800003580749</v>
+        <v>0.005792370066046715</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.008973824791610241</v>
+        <v>0.006392334122210741</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.002344185253605247</v>
+        <v>0.004693895578384399</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.003444389440119267</v>
+        <v>0.004723917692899704</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0007773357210680842</v>
+        <v>0.006087255664169788</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0022966752294451</v>
+        <v>0.002180346753448248</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0005982182337902486</v>
+        <v>0.005106090568006039</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.005378631874918938</v>
+        <v>0.00502646854147315</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.004476544447243214</v>
+        <v>0.0007240955019369721</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.005379586480557919</v>
+        <v>0.004234307911247015</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.002109444234520197</v>
+        <v>0.001223999890498817</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.001763662323355675</v>
+        <v>0.004883380141109228</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.002262543421238661</v>
+        <v>0.002487133257091045</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.00124239781871438</v>
+        <v>0.001220733858644962</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.003296559909358621</v>
+        <v>0.005202278960496187</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.003446590853855014</v>
+        <v>0.004564573056995869</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.004721793346107006</v>
+        <v>0.0009920235024765134</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.001945676398463547</v>
+        <v>0.003548392094671726</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.00469324691221118</v>
+        <v>0.0008111021597869694</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0006601940840482712</v>
+        <v>0.0009814588120207191</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.001783189713023603</v>
+        <v>0.003456946695223451</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0002521506394259632</v>
+        <v>0.002605551620945334</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.001352352323010564</v>
+        <v>0.001666992902755737</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.002322768326848745</v>
+        <v>0.002913523931056261</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.007351664826273918</v>
+        <v>0.004035132471472025</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.01070781145244837</v>
+        <v>0.0006597572937607765</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0007950323633849621</v>
+        <v>0.005313134752213955</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0001691601355560124</v>
+        <v>0.001293791690841317</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0001000777701847255</v>
+        <v>0.0003392671351321042</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.001264824531972408</v>
+        <v>0.008019153028726578</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0008827410638332367</v>
+        <v>0.00330646988004446</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.001835829811170697</v>
+        <v>0.00581539049744606</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.002046348294243217</v>
+        <v>0.007054667454212904</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.003306475002318621</v>
+        <v>0.0003086437936872244</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.005288572981953621</v>
+        <v>0.009754768572747707</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.0004235568339936435</v>
+        <v>0.004062202759087086</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.004162706434726715</v>
+        <v>0.00579201802611351</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0005584898171946406</v>
+        <v>0.001101154601201415</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.001032265601679683</v>
+        <v>0.001947366166859865</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.00235889432951808</v>
+        <v>0.003628987120464444</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.001810404588468373</v>
+        <v>0.001666106632910669</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.002396733034402132</v>
+        <v>0.005546715576201677</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.002951808739453554</v>
+        <v>0.003020909382030368</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.006748722866177559</v>
+        <v>0.005166373215615749</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.001184108550660312</v>
+        <v>0.005687486380338669</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.003525888081640005</v>
+        <v>0.001603060169145465</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.0009334011701866984</v>
+        <v>0.002533058635890484</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.002502998802810907</v>
+        <v>0.003515624441206455</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.003117243060842156</v>
+        <v>0.006959089543670416</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.001006389153189957</v>
+        <v>0.004185901954770088</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.001443827291950583</v>
+        <v>0.006990125868469477</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.003511502640321851</v>
+        <v>0.003811903297901154</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.002092378912493587</v>
+        <v>0.001603489508852363</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.001562144956551492</v>
+        <v>0.003517996752634645</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.005886204540729523</v>
+        <v>0.002697983058169484</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.002091133967041969</v>
+        <v>0.003209811635315418</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.006077926140278578</v>
+        <v>0.01259953528642654</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.0003804996376857162</v>
+        <v>0.002455375157296658</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0001714833924779668</v>
+        <v>0.003419060725718737</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.002487142803147435</v>
+        <v>0.01282912772148848</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.001745752524584532</v>
+        <v>0.008010441437363625</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.01072147022932768</v>
+        <v>0.002363457344472408</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0006802807911299169</v>
+        <v>0.003259680001065135</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.006221008487045765</v>
+        <v>0.001897281152196229</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.00091881665866822</v>
+        <v>0.002100622514262795</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.004340508487075567</v>
+        <v>0.01071579940617085</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0001066287950379774</v>
+        <v>0.006224635522812605</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.002139952266588807</v>
+        <v>0.002098040422424674</v>
       </c>
       <c r="GB10" t="n">
-        <v>5.22453774465248e-05</v>
+        <v>0.001188652357086539</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.002458357717841864</v>
+        <v>0.002821685746312141</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.004303634632378817</v>
+        <v>0.006729810498654842</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001239636330865324</v>
+        <v>0.01353388279676437</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.00553485844284296</v>
+        <v>0.004357235971838236</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0003478169383015484</v>
+        <v>0.002679110504686832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002222460927441716</v>
+        <v>0.001377147738821805</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04343106225132942</v>
+        <v>0.02880252338945866</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004630425479263067</v>
+        <v>0.00426807813346386</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005905704107135534</v>
+        <v>0.02013137377798557</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03060679137706757</v>
+        <v>0.008319368585944176</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06607070565223694</v>
+        <v>0.004228109493851662</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004077316727489233</v>
+        <v>0.005154773592948914</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01561105810105801</v>
+        <v>0.002369419671595097</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008327847346663475</v>
+        <v>0.0005113924853503704</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01020288001745939</v>
+        <v>0.004867265932261944</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0462639145553112</v>
+        <v>0.0216892845928669</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01196296699345112</v>
+        <v>0.00116914149839431</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01156886480748653</v>
+        <v>0.01902243867516518</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02528990805149078</v>
+        <v>0.01171044167131186</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06827419251203537</v>
+        <v>0.008774730376899242</v>
       </c>
       <c r="P11" t="n">
-        <v>0.003189572831615806</v>
+        <v>0.002680010395124555</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006926535628736019</v>
+        <v>0.002836399944499135</v>
       </c>
       <c r="R11" t="n">
-        <v>0.007278958335518837</v>
+        <v>0.003518176730722189</v>
       </c>
       <c r="S11" t="n">
-        <v>0.006815113127231598</v>
+        <v>0.001643724273890257</v>
       </c>
       <c r="T11" t="n">
-        <v>0.005260939709842205</v>
+        <v>0.006240048445761204</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002390960231423378</v>
+        <v>0.0003720565291587263</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002071790397167206</v>
+        <v>0.002560003893449903</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002780723851174116</v>
+        <v>0.001342018134891987</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02088033407926559</v>
+        <v>0.004954779986292124</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.005698485299944878</v>
+        <v>0.004048265982419252</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01111149787902832</v>
+        <v>0.001676858635619283</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.004435539245605469</v>
+        <v>0.003120661247521639</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01131472550332546</v>
+        <v>0.001232220092788339</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.00494389608502388</v>
+        <v>0.005270405672490597</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.00478323781862855</v>
+        <v>0.001281871926039457</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001091970829293132</v>
+        <v>0.00151310081128031</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02176206186413765</v>
+        <v>0.001279339892789721</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.003569758264347911</v>
+        <v>0.000521081208717078</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0009054382098838687</v>
+        <v>0.00306396558880806</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.007350706029683352</v>
+        <v>0.002818779088556767</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.002456918358802795</v>
+        <v>0.00108483072835952</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.003677904605865479</v>
+        <v>0.002054616110399365</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.009452924132347107</v>
+        <v>0.004504616837948561</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0003223465173505247</v>
+        <v>0.0005180586013011634</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0007640144322067499</v>
+        <v>9.642948862165213e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0003174520679749548</v>
+        <v>0.001652408740483224</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.007671331521123648</v>
+        <v>0.001824974548071623</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.001933314022608101</v>
+        <v>0.002846044953912497</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.00299601536244154</v>
+        <v>0.002109558321535587</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.006418555974960327</v>
+        <v>0.001742572174407542</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.003573078662157059</v>
+        <v>0.002867016708478332</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.02952363900840282</v>
+        <v>0.02026291377842426</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.006454993970692158</v>
+        <v>0.001333304913714528</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.01466986816376448</v>
+        <v>0.004060921724885702</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.001082224072888494</v>
+        <v>0.0003750950563699007</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.03096098452806473</v>
+        <v>0.0004084339598193765</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0007512103766202927</v>
+        <v>0.004069700371474028</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.002109507797285914</v>
+        <v>0.001865547732450068</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.001067838398739696</v>
+        <v>0.0003527198859956115</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.01365517359226942</v>
+        <v>0.00061378488317132</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0008683091145940125</v>
+        <v>0.003865828271955252</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.005612093955278397</v>
+        <v>0.006112862844020128</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.007832168601453304</v>
+        <v>0.00625288300216198</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.00389370764605701</v>
+        <v>0.01140810083597898</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.01251356303691864</v>
+        <v>0.002558227861300111</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0003255077172070742</v>
+        <v>0.002293575089424849</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.01217068731784821</v>
+        <v>0.002489244332537055</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.005354782566428185</v>
+        <v>0.002398841315880418</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.003626950550824404</v>
+        <v>0.002869765507057309</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.007378194481134415</v>
+        <v>0.003750015515834093</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.006376134231686592</v>
+        <v>0.002974541857838631</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.003726599272340536</v>
+        <v>0.001271262066438794</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01611716859042645</v>
+        <v>0.00201986194588244</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.005278181750327349</v>
+        <v>0.002943632658571005</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0001616784720681608</v>
+        <v>0.0002484165597707033</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.01288933865725994</v>
+        <v>0.0008999648271128535</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.009762122295796871</v>
+        <v>0.002286524279043078</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0004236875101923943</v>
+        <v>0.002240911591798067</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.01621091552078724</v>
+        <v>0.01074874028563499</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.003509958274662495</v>
+        <v>0.004578945226967335</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.006171777844429016</v>
+        <v>0.004279681015759706</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01016862038522959</v>
+        <v>2.774857603071723e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.01998649910092354</v>
+        <v>0.001340351765975356</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.001641814014874399</v>
+        <v>0.002529368503019214</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.004619169980287552</v>
+        <v>0.000513292383402586</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.009178698994219303</v>
+        <v>0.002494310727342963</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.001572685316205025</v>
+        <v>0.000729358522221446</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.009623142890632153</v>
+        <v>0.004997002892196178</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.0003719845844898373</v>
+        <v>0.002429214771836996</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.002437965013086796</v>
+        <v>0.002374211559072137</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.007494871504604816</v>
+        <v>0.0008195573464035988</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0121197197586298</v>
+        <v>0.002099745674058795</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.002750245155766606</v>
+        <v>0.0008370574214495718</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.001276143593713641</v>
+        <v>0.0003222997765988111</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.001989959040656686</v>
+        <v>0.00144670985173434</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0008446596330031753</v>
+        <v>0.005227241199463606</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.002224352676421404</v>
+        <v>0.002271206583827734</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.008167760446667671</v>
+        <v>0.0001397784217260778</v>
       </c>
       <c r="CP11" t="n">
-        <v>7.307203486561775e-05</v>
+        <v>0.002693971851840615</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.009857959114015102</v>
+        <v>0.003411797573789954</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0101951751857996</v>
+        <v>0.000819746870547533</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.009047756902873516</v>
+        <v>0.003281159792095423</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.003592862514778972</v>
+        <v>0.003388659795746207</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.004309483338147402</v>
+        <v>0.0002024001005338505</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.003326604142785072</v>
+        <v>0.0005906772566959262</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.008850296959280968</v>
+        <v>0.004481275100260973</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.0004523391835391521</v>
+        <v>0.002719469135627151</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0004460470518097281</v>
+        <v>0.003193331882357597</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.006563081871718168</v>
+        <v>0.0009766261791810393</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.01031555235385895</v>
+        <v>0.00311803468503058</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.003590690204873681</v>
+        <v>0.001058090012520552</v>
       </c>
       <c r="DC11" t="n">
-        <v>8.303474169224501e-05</v>
+        <v>0.0007218342507258058</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.001934949890710413</v>
+        <v>0.0004359603626653552</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.01089667901396751</v>
+        <v>0.001791298622265458</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.005900357384234667</v>
+        <v>0.00516132777556777</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.008327728137373924</v>
+        <v>0.0005762525252066553</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.002743457909673452</v>
+        <v>0.006731047760695219</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.01711214706301689</v>
+        <v>0.0006998047465458512</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.00642229150980711</v>
+        <v>0.003321409691125154</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.008927356451749802</v>
+        <v>0.001311637926846743</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.003142130561172962</v>
+        <v>0.0001616369117982686</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.01496670860797167</v>
+        <v>0.001112288446165621</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.003221501130610704</v>
+        <v>0.000120419732411392</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.002324172062799335</v>
+        <v>0.0008948829490691423</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.005125230178236961</v>
+        <v>0.001074239728040993</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.003766145091503859</v>
+        <v>0.0001667148317210376</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.001837099203839898</v>
+        <v>0.00252835126593709</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.007865205407142639</v>
+        <v>0.00150637177284807</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0005827196873724461</v>
+        <v>0.002328572794795036</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.003121740883216262</v>
+        <v>0.002051047747954726</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.002514665480703115</v>
+        <v>0.003398660337552428</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.002883425215259194</v>
+        <v>0.000363012426532805</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.004641435574740171</v>
+        <v>0.002225070726126432</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.004677220247685909</v>
+        <v>0.003210053779184818</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0001177950762212276</v>
+        <v>0.001864886842668056</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.001249522669240832</v>
+        <v>0.001916900160722435</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.004615568090230227</v>
+        <v>0.0006442611338570714</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.000784181640483439</v>
+        <v>0.001497913850471377</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0008463856065645814</v>
+        <v>0.001430845353752375</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.002975707640871406</v>
+        <v>0.002505285432562232</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.00401967391371727</v>
+        <v>0.0001992594916373491</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.01394472178071737</v>
+        <v>0.002536965534090996</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.006634353194385767</v>
+        <v>0.002480914816260338</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0005568410851992667</v>
+        <v>0.00295161223039031</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01898539066314697</v>
+        <v>0.001121455570682883</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01233161147683859</v>
+        <v>0.004172113724052906</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0004285650793462992</v>
+        <v>0.0006773144705221057</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.003024026984348893</v>
+        <v>0.0005692739505320787</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.005207698792219162</v>
+        <v>0.0006409372435882688</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0006588521646335721</v>
+        <v>0.0001064419047906995</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.003887645667418838</v>
+        <v>0.003990615718066692</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.006482872180640697</v>
+        <v>0.003247925546020269</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0003138022730126977</v>
+        <v>0.001103017013520002</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.008859597146511078</v>
+        <v>0.001413306803442538</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.01013939641416073</v>
+        <v>0.002804652322083712</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.007965617813169956</v>
+        <v>0.001906120916828513</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0002218251465819776</v>
+        <v>0.002914446173235774</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.007485900539904833</v>
+        <v>0.0001261269499082118</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.003312148153781891</v>
+        <v>0.0001898101763799787</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.01030244585126638</v>
+        <v>0.004653595387935638</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.0009320313693024218</v>
+        <v>0.001724513480439782</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0002652127295732498</v>
+        <v>0.003504339372739196</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.007185313850641251</v>
+        <v>0.0009158588945865631</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.01111758965998888</v>
+        <v>0.002743775025010109</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.002464758697897196</v>
+        <v>0.00100486190058291</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.000572866527363658</v>
+        <v>0.0004280986613593996</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.00193603674415499</v>
+        <v>0.001263132318854332</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.006719529628753662</v>
+        <v>0.0006651327712461352</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.01020694617182016</v>
+        <v>0.001839426928199828</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.01579107716679573</v>
+        <v>0.002628092421218753</v>
       </c>
       <c r="FJ11" t="n">
-        <v>4.609840107150376e-05</v>
+        <v>0.002424519043415785</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01106166560202837</v>
+        <v>0.0005027049919590354</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.01250284910202026</v>
+        <v>0.002871349453926086</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.003734515979886055</v>
+        <v>0.000483688956592232</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0009791110642254353</v>
+        <v>0.0007408355013467371</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.004557557869702578</v>
+        <v>0.0004945837426930666</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.0008293900173157454</v>
+        <v>0.000412993598729372</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01057498529553413</v>
+        <v>0.004289727658033371</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.004461472854018211</v>
+        <v>0.002542817266657948</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.007016819436103106</v>
+        <v>0.003871506080031395</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.003055935725569725</v>
+        <v>0.001747166039422154</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.01684735342860222</v>
+        <v>0.002655002987012267</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.0004990053130313754</v>
+        <v>0.001766979694366455</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.002998390235006809</v>
+        <v>0.0008292146376334131</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.003085714299231768</v>
+        <v>0.001492640934884548</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.007045928854495287</v>
+        <v>0.005116486921906471</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.004018916748464108</v>
+        <v>0.0008319296757690609</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.001105452422052622</v>
+        <v>0.0002839644148480147</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.002078232821077108</v>
+        <v>0.000693475129082799</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.002816247288137674</v>
+        <v>0.002016171114519238</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.00270483223721385</v>
+        <v>0.002217236906290054</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.000290531781502068</v>
+        <v>0.01146338880062103</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.01295660994946957</v>
+        <v>0.0005066328449174762</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.007421989925205708</v>
+        <v>0.002989727770909667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0036410978063941</v>
+        <v>0.0002017038059420884</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003041248768568039</v>
+        <v>0.001775491167791188</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001475732307881117</v>
+        <v>0.0001180557446787134</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001156371319666505</v>
+        <v>0.001041261944919825</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02513252384960651</v>
+        <v>0.0001610228209756315</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0657656267285347</v>
+        <v>0.001284115947782993</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001573951682075858</v>
+        <v>0.000103134945675265</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03360702097415924</v>
+        <v>0.0004323855973780155</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01088516693562269</v>
+        <v>8.424340921919793e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005109121091663837</v>
+        <v>0.000333071657223627</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006307529285550117</v>
+        <v>0.001433245721273124</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001411997363902628</v>
+        <v>8.929199975682423e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002709290711209178</v>
+        <v>0.0009446812327951193</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0201665572822094</v>
+        <v>0.0001965010451385751</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06253239512443542</v>
+        <v>0.001373364240862429</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01244697626680136</v>
+        <v>0.0001514260220574215</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02915068529546261</v>
+        <v>5.373498424887657e-05</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01143840327858925</v>
+        <v>0.0001118366562877782</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01030711736530066</v>
+        <v>0.0001075441177817993</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002029516501352191</v>
+        <v>0.0003610547573771328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.005867505446076393</v>
+        <v>1.111364144890103e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>0.005474019329994917</v>
+        <v>0.0002733987639658153</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0008216105634346604</v>
+        <v>6.978478631936014e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01506141200661659</v>
+        <v>0.0001721120206639171</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0008713138522580266</v>
+        <v>0.0001749326474964619</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.007151679135859013</v>
+        <v>1.958249049494043e-05</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.003554850583896041</v>
+        <v>0.0001969561562873423</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.002693451009690762</v>
+        <v>3.426583134569228e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.00270921690389514</v>
+        <v>0.0002910417970269918</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002836066531017423</v>
+        <v>4.042563887196593e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.00785173662006855</v>
+        <v>0.0001714204263407737</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01615031622350216</v>
+        <v>0.0001924647367559373</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.009293568320572376</v>
+        <v>8.098444232018664e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.01306266058236361</v>
+        <v>0.0003262722748331726</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.01492216158658266</v>
+        <v>7.771306263748556e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.00523755419999361</v>
+        <v>0.0001069562931661494</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.0002799586218316108</v>
+        <v>0.0002633408585097641</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0009651800501160324</v>
+        <v>0.0002870156604330987</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.009109176695346832</v>
+        <v>4.206080120638944e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.00645502982661128</v>
+        <v>7.181108230724931e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.00350010534748435</v>
+        <v>9.441659494768828e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.01040826924145222</v>
+        <v>0.0002581598237156868</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.001371372723951936</v>
+        <v>0.0001303475437453017</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.002473106607794762</v>
+        <v>8.081069972831756e-05</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0009776055812835693</v>
+        <v>0.0002106672618538141</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.000656416523270309</v>
+        <v>0.0002344698878005147</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.005669843871146441</v>
+        <v>0.001335881883278489</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.009863298386335373</v>
+        <v>3.202950756531209e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.004196087829768658</v>
+        <v>4.007437019026838e-05</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0003734664060175419</v>
+        <v>1.641388371353969e-05</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.02028867416083813</v>
+        <v>0.0008030689205043018</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.002237623324617743</v>
+        <v>0.0001752924872562289</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.01398355048149824</v>
+        <v>0.0004834872670471668</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.007654517889022827</v>
+        <v>0.0003064424090553075</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.004601791966706514</v>
+        <v>0.0001280210562981665</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.003071293234825134</v>
+        <v>0.0003415225946810097</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.001232390990480781</v>
+        <v>0.0004274866078048944</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.008668098598718643</v>
+        <v>0.0003943828633055091</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.001166510977782309</v>
+        <v>0.0004239728441461921</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.01215944811701775</v>
+        <v>0.0003133608843199909</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.005589265841990709</v>
+        <v>1.433394936611876e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01072285044938326</v>
+        <v>0.0005771802389062941</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.001042802003212273</v>
+        <v>1.837390300352126e-05</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.00157800130546093</v>
+        <v>2.214116102550179e-05</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.001561524346470833</v>
+        <v>0.0004751275409944355</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.0005558176198974252</v>
+        <v>0.0002408674481557682</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.004760290961712599</v>
+        <v>0.0003328528255224228</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.008600054308772087</v>
+        <v>0.0004245591117069125</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.01228509750217199</v>
+        <v>0.0001160372121375985</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.0003609121777117252</v>
+        <v>0.0003260452067479491</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.008442293852567673</v>
+        <v>6.972344272071496e-05</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.003279004013165832</v>
+        <v>0.0001731711381580681</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.006988918408751488</v>
+        <v>0.0001192156778415665</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.005031771957874298</v>
+        <v>0.0006742916302755475</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.003307412378489971</v>
+        <v>0.0002426957216812298</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.006310124881565571</v>
+        <v>0.0001154033961938694</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.003936005290597677</v>
+        <v>0.0001763844338711351</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.02214387990534306</v>
+        <v>0.0002050506882369518</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.009840359911322594</v>
+        <v>0.0003186464309692383</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.006430542562156916</v>
+        <v>0.0002213718253187835</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.006890273652970791</v>
+        <v>0.000169859456946142</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.001023892080411315</v>
+        <v>1.32856730488129e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.001471346244215965</v>
+        <v>0.0003410179051570594</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.001085987198166549</v>
+        <v>0.0001781032333383337</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.001748399576172233</v>
+        <v>0.0002261996269226074</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.005923383869230747</v>
+        <v>0.0001691784564172849</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0121882651001215</v>
+        <v>0.0001997137587750331</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.001844170736148953</v>
+        <v>6.608777039218694e-05</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.006162970326840878</v>
+        <v>0.0001052821971825324</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.002484945580363274</v>
+        <v>0.0001236710086232051</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.004867957439273596</v>
+        <v>0.0004235236265230924</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.004604110959917307</v>
+        <v>0.0003294147027190775</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.002359753474593163</v>
+        <v>5.191349555389024e-05</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0006464524194598198</v>
+        <v>0.0002652661933097988</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.008678345941007137</v>
+        <v>0.0001844995422288775</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0157759003341198</v>
+        <v>0.0001718136190902442</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.0009064681944437325</v>
+        <v>6.197795300977305e-05</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.005775078199803829</v>
+        <v>0.0001931748702190816</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.003671400714665651</v>
+        <v>6.517017754958943e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.001707574119791389</v>
+        <v>3.301556353108026e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.001377565320581198</v>
+        <v>0.0002919123216997832</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0009179383050650358</v>
+        <v>0.0001943569222930819</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0008011539466679096</v>
+        <v>0.000319199520163238</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.006980415899306536</v>
+        <v>0.0001340393209829926</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.01247013546526432</v>
+        <v>0.0002081318671116605</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.001529739471152425</v>
+        <v>0.0001213904688484035</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.008102655410766602</v>
+        <v>0.0002490545448381454</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.002079886384308338</v>
+        <v>7.296265539480373e-05</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.01454533077776432</v>
+        <v>0.0001614993234397843</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.01872261986136436</v>
+        <v>0.0006422728765755892</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.005629627034068108</v>
+        <v>8.139146666508168e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.001658900175243616</v>
+        <v>0.0006661233492195606</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.008618992753326893</v>
+        <v>0.0001930458092829213</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.01127682626247406</v>
+        <v>6.080686580389738e-05</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.001849804073572159</v>
+        <v>0.00048056710511446</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.007995933294296265</v>
+        <v>0.0002608041977509856</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.002871090779080987</v>
+        <v>0.0001872861466836184</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.007359387818723917</v>
+        <v>5.242083716439083e-05</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.001879951916635036</v>
+        <v>0.0002397190255578607</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.002315927995368838</v>
+        <v>0.0001710733631625772</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.008714065887033939</v>
+        <v>0.0001152949262177572</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.002388699445873499</v>
+        <v>8.31072757137008e-05</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.005372610874474049</v>
+        <v>0.0001442677166778594</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.001295964000746608</v>
+        <v>3.871636727126315e-05</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.005088374949991703</v>
+        <v>3.149677650071681e-05</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0007585380226373672</v>
+        <v>0.0001397049782099202</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.003159817773848772</v>
+        <v>9.197938197758049e-06</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0001944509567692876</v>
+        <v>9.164528455585241e-05</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0005423673428595066</v>
+        <v>0.0002604040782898664</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0006732444744557142</v>
+        <v>0.0001332362007815391</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.001442157197743654</v>
+        <v>8.582619193475693e-05</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.001963499467819929</v>
+        <v>9.367500751977786e-06</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.005932072643190622</v>
+        <v>0.0001107246789615601</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.007182768080383539</v>
+        <v>6.335033685900271e-05</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.002516713924705982</v>
+        <v>0.0001111978635890409</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.00199555023573339</v>
+        <v>0.0001781302125891671</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.001600090647116303</v>
+        <v>7.546191045548767e-05</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.000449367449618876</v>
+        <v>0.0001260415592696518</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.002512881997972727</v>
+        <v>0.0001599820971023291</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.0115786362439394</v>
+        <v>3.891254891641438e-05</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.01913228444755077</v>
+        <v>0.0001603738055564463</v>
       </c>
       <c r="EL12" t="n">
-        <v>8.77535785548389e-06</v>
+        <v>0.000129847670905292</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.009188939817249775</v>
+        <v>1.937150955200195e-06</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.007003979757428169</v>
+        <v>4.637120946426876e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.002684412756934762</v>
+        <v>0.000121920027595479</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.005691424943506718</v>
+        <v>7.020949851721525e-05</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.001587751205079257</v>
+        <v>0.000233657076023519</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.00537002831697464</v>
+        <v>0.0001570386521052569</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.008610774762928486</v>
+        <v>0.0002211281680501997</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.01136939879506826</v>
+        <v>0.000124470388982445</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.003569776890799403</v>
+        <v>0.0001811746333260089</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.004389509093016386</v>
+        <v>0.0003433638485148549</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.003021939657628536</v>
+        <v>1.054843960446306e-05</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.0007407963275909424</v>
+        <v>1.936234548338689e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.0005180065636523068</v>
+        <v>0.000257479608990252</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.001128711504861712</v>
+        <v>0.0001473383890697733</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.001753157936036587</v>
+        <v>0.0002105490129906684</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.005226008594036102</v>
+        <v>0.0001647733442950994</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.01287041418254375</v>
+        <v>0.0001989010779652745</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.001070433063432574</v>
+        <v>0.0001527340500615537</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.006697400473058224</v>
+        <v>0.0001237339747603983</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0001930298749357462</v>
+        <v>0.0001388162199873477</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.005158707499504089</v>
+        <v>0.0001264467864530161</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.0002848426811397076</v>
+        <v>0.0001456134195905179</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.004622613545507193</v>
+        <v>0.0002637156285345554</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.004735149443149567</v>
+        <v>9.338092058897018e-05</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.003227658569812775</v>
+        <v>3.978882523369975e-05</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.005996453575789928</v>
+        <v>0.0001727837516227737</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.001925799762830138</v>
+        <v>4.905177047476172e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.009634023532271385</v>
+        <v>5.411005986388773e-05</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.003267784137278795</v>
+        <v>4.980673838872463e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.003222475061193109</v>
+        <v>0.0001819244644138962</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.004284590482711792</v>
+        <v>7.826498767826706e-05</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.002730536973103881</v>
+        <v>0.000100509831099771</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.006420955061912537</v>
+        <v>0.0003990030381828547</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.001479796599596739</v>
+        <v>0.0005222269683144987</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.01434632949531078</v>
+        <v>0.0002698902389965951</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.007451456040143967</v>
+        <v>0.0001626145240152255</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.006713445298373699</v>
+        <v>0.0003525284118950367</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.007874270901083946</v>
+        <v>4.51361047453247e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.00672972621396184</v>
+        <v>0.0002947589964605868</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.004809321835637093</v>
+        <v>0.0001433214783901349</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.001008158084005117</v>
+        <v>7.672961510252208e-05</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.003335533197969198</v>
+        <v>0.0001989066076930612</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.002093783346936107</v>
+        <v>0.0001160076790256426</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.006382504012435675</v>
+        <v>0.0001216204909724183</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.01123214140534401</v>
+        <v>0.0007198548410087824</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.006440626457333565</v>
+        <v>0.0002765870885923505</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.0004788190126419067</v>
+        <v>0.000253595324466005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0005946934688836336</v>
+        <v>0.003381856251507998</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01740217208862305</v>
+        <v>0.02750666625797749</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001203097752295434</v>
+        <v>0.00345922727137804</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001521122409030795</v>
+        <v>0.01585974358022213</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01342427078634501</v>
+        <v>0.008561629801988602</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01984297856688499</v>
+        <v>0.006797817535698414</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0008239955059252679</v>
+        <v>0.003316684160381556</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006545143201947212</v>
+        <v>0.002199148992076516</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003917833790183067</v>
+        <v>0.0006387565517798066</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003651632461696863</v>
+        <v>0.003029264742508531</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01816902682185173</v>
+        <v>0.02109759487211704</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000155933725181967</v>
+        <v>0.001262762234546244</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003865278558805585</v>
+        <v>0.01163801085203886</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01406911294907331</v>
+        <v>0.007612952031195164</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01835381984710693</v>
+        <v>0.008880028501152992</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0004505106771830469</v>
+        <v>0.002986926585435867</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002569572068750858</v>
+        <v>0.005032915156334639</v>
       </c>
       <c r="R13" t="n">
-        <v>0.003068650839850307</v>
+        <v>0.0007350823143497109</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001328762155026197</v>
+        <v>0.002368038985878229</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0004154454509261996</v>
+        <v>0.004735673777759075</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0003049476072192192</v>
+        <v>0.001089980127289891</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0003369733749423176</v>
+        <v>0.004215527791529894</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0004649647453334183</v>
+        <v>0.001766532543115318</v>
       </c>
       <c r="X13" t="n">
-        <v>0.005002869293093681</v>
+        <v>0.003083971329033375</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.002016640035435557</v>
+        <v>0.003683035727590322</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.004707930143922567</v>
+        <v>0.003615392372012138</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0009635744499973953</v>
+        <v>0.003424052149057388</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.001946591539308429</v>
+        <v>0.0006490671075880527</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.000350023212376982</v>
+        <v>2.047236557700671e-05</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001568870735354722</v>
+        <v>0.001577868359163404</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0007047007093206048</v>
+        <v>0.0007013370050117373</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.007037249393761158</v>
+        <v>0.0005711046978831291</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.000406910665333271</v>
+        <v>0.001145146670751274</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0004345961206126958</v>
+        <v>0.001988940173760056</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.003605963662266731</v>
+        <v>0.001810665591619909</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.001002083881758153</v>
+        <v>0.001482889172621071</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.001485700951889157</v>
+        <v>0.003266858402639627</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.004636939615011215</v>
+        <v>0.002741514006629586</v>
       </c>
       <c r="AM13" t="n">
-        <v>6.403571023838595e-05</v>
+        <v>0.0005948280449956656</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0007315407856367528</v>
+        <v>0.001861662487499416</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0008491065818816423</v>
+        <v>0.001940605347044766</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.002980599645525217</v>
+        <v>0.002466583624482155</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0008946360321715474</v>
+        <v>0.002091244328767061</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0008070410112850368</v>
+        <v>0.002152922563254833</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0020795539021492</v>
+        <v>0.002167148748412728</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.001479725702665746</v>
+        <v>0.0005941829876974225</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.00874059647321701</v>
+        <v>0.0180544052273035</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.001437067287042737</v>
+        <v>0.000767752411775291</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.003409215481951833</v>
+        <v>0.0008820135262794793</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.001167004113085568</v>
+        <v>0.0006677818601019681</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.01128611154854298</v>
+        <v>0.0001862243079813197</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0005478117382153869</v>
+        <v>0.001501377322711051</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0003696611383929849</v>
+        <v>0.005018898285925388</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0003987002128269523</v>
+        <v>0.001515946700237691</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.002794558182358742</v>
+        <v>0.003386492375284433</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.001302726217545569</v>
+        <v>0.00392649881541729</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0009900633012875915</v>
+        <v>0.006057657767087221</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.004814826883375645</v>
+        <v>0.004725749604403973</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.003620137926191092</v>
+        <v>0.009371025487780571</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.001435883459635079</v>
+        <v>0.003214873373508453</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.001433373196050525</v>
+        <v>0.0004881606146227568</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.005541298538446426</v>
+        <v>0.004937845747917891</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.002580362372100353</v>
+        <v>0.0002784017706289887</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.001468689762987196</v>
+        <v>0.004167200997471809</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.002285645576193929</v>
+        <v>0.00519237807020545</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.002549911616370082</v>
+        <v>0.001989883603528142</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.002512824255973101</v>
+        <v>3.992066194768995e-05</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.003756380872800946</v>
+        <v>0.002314402721822262</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.00277045089751482</v>
+        <v>0.002695755567401648</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0009807947790250182</v>
+        <v>0.0001942601957125589</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.004111893940716982</v>
+        <v>0.001815476571209729</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.002850698307156563</v>
+        <v>0.0001037991314660758</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0008868484292179346</v>
+        <v>0.0004269818018656224</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.00601634569466114</v>
+        <v>0.01031132694333792</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0002306098322151229</v>
+        <v>0.003785081207752228</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.00203815964050591</v>
+        <v>0.001436666701920331</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.003510545706376433</v>
+        <v>4.26997066824697e-05</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.00607357919216156</v>
+        <v>0.003449102863669395</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.001797629869543016</v>
+        <v>0.003835452254861593</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.001980231143534184</v>
+        <v>0.0004929412389174104</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.004412771668285131</v>
+        <v>0.001814763061702251</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.000522215967066586</v>
+        <v>0.0002805478579830378</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.003575477050617337</v>
+        <v>0.004296991508454084</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0009635948808863759</v>
+        <v>0.001900401432067156</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.001294236513786018</v>
+        <v>0.001838797470554709</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.002911368384957314</v>
+        <v>0.0008547063334845006</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.003349751932546496</v>
+        <v>0.002053645206615329</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.00101579912006855</v>
+        <v>0.0009566076914779842</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0001748058421071619</v>
+        <v>0.0009191387216560543</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0009048338397406042</v>
+        <v>0.002299633575603366</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0001170558971352875</v>
+        <v>0.002650545910000801</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.002594180637970567</v>
+        <v>0.001097809057682753</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.002003176137804985</v>
+        <v>0.00211274903267622</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.001742895925417542</v>
+        <v>0.00490501569584012</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002759764203801751</v>
+        <v>0.003886985126882792</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.004947329871356487</v>
+        <v>0.003393219318240881</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.002976272720843554</v>
+        <v>0.004580348264425993</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.001540228491649032</v>
+        <v>0.002843455411493778</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.002101361053064466</v>
+        <v>0.001080685527995229</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0009425781900063157</v>
+        <v>0.0004030192212667316</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.003489268012344837</v>
+        <v>0.003606016980484128</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.001131954486481845</v>
+        <v>0.001760873943567276</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0002437259827274829</v>
+        <v>0.002916409634053707</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.002968817483633757</v>
+        <v>0.001017317292280495</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.002833035076037049</v>
+        <v>0.002449001185595989</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.001821708981879056</v>
+        <v>0.001429633121006191</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.000706949969753623</v>
+        <v>0.001438913750462234</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.001161613035947084</v>
+        <v>0.001499258796684444</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.002979326294735074</v>
+        <v>0.0004529225407168269</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.003675087820738554</v>
+        <v>0.005281864665448666</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.005000106990337372</v>
+        <v>0.006632262840867043</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0002450581814628094</v>
+        <v>0.01291297655552626</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.005729708354920149</v>
+        <v>0.001406370894983411</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0007620692485943437</v>
+        <v>0.002259049331769347</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.005467023700475693</v>
+        <v>0.001093168742954731</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.002574395388364792</v>
+        <v>0.001283623510971665</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.003404584480449557</v>
+        <v>0.001540339435450733</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0009857327677309513</v>
+        <v>0.00265469285659492</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0004323860630393028</v>
+        <v>0.002295565791428089</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.002030665520578623</v>
+        <v>0.0003079090965911746</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0004614067438524216</v>
+        <v>0.0009882927406579256</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.001586507307365537</v>
+        <v>0.001702368608675897</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.002988104708492756</v>
+        <v>0.001397596439346671</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.001385832787491381</v>
+        <v>0.002004986628890038</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0004875814192928374</v>
+        <v>0.001017066184431314</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0008914576610550284</v>
+        <v>0.003905379679054022</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001544540398754179</v>
+        <v>0.001894872635602951</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.000920257531106472</v>
+        <v>0.0004764184704981744</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0006621634238399565</v>
+        <v>0.004247114062309265</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0009954062988981605</v>
+        <v>0.0004426373343449086</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0003585872182156891</v>
+        <v>0.001983868423849344</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.00283714197576046</v>
+        <v>0.002341662533581257</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0008686193032190204</v>
+        <v>0.0002362483210163191</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.001222614897415042</v>
+        <v>0.0004716120311059058</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.001639592344872653</v>
+        <v>0.002820783527567983</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.001144952489994466</v>
+        <v>0.002615269040688872</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.00478490861132741</v>
+        <v>0.004231125116348267</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.003316570073366165</v>
+        <v>0.001029687118716538</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0005849917652085423</v>
+        <v>0.001031880150549114</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.007828031666576862</v>
+        <v>0.002070056973025203</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.003633609972894192</v>
+        <v>0.001995876198634505</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0001073998428182676</v>
+        <v>0.001869191648438573</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.002491195453330874</v>
+        <v>0.0003835872339550406</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.002331947674974799</v>
+        <v>0.001047655241563916</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.001387732569128275</v>
+        <v>0.0002295633894391358</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0002944329171441495</v>
+        <v>0.0008062532288022339</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.001697246800176799</v>
+        <v>0.003176656784489751</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0007996851345524192</v>
+        <v>0.001185197848826647</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.00271665770560503</v>
+        <v>0.0003976101870648563</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.003753445344045758</v>
+        <v>0.002943801693618298</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.002612197073176503</v>
+        <v>0.002402843441814184</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0003449098439887166</v>
+        <v>0.002895059529691935</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.001747953006997705</v>
+        <v>0.001747118076309562</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.001391497440636158</v>
+        <v>0.0001393561105942354</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.003775462042540312</v>
+        <v>0.003575462847948074</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0005819395883008838</v>
+        <v>0.00153956119902432</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0004880830238107592</v>
+        <v>0.002375703537836671</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.002943721134215593</v>
+        <v>0.0005070041515864432</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.003014089539647102</v>
+        <v>0.002206528326496482</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.001182732172310352</v>
+        <v>0.001699160202406347</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0005739503540098667</v>
+        <v>0.0008221002062782645</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0009622129728086293</v>
+        <v>0.002342301420867443</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.002805412281304598</v>
+        <v>0.002573002595454454</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.004141391720622778</v>
+        <v>0.001873187604360282</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.003873108886182308</v>
+        <v>0.003068911377340555</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.00119001348502934</v>
+        <v>0.003053660737350583</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.003753734286874533</v>
+        <v>0.002204987453296781</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.004520667716860771</v>
+        <v>0.001658075489103794</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.002060003578662872</v>
+        <v>0.002213317900896072</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0005263462662696838</v>
+        <v>0.002271126490086317</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.002109593013301492</v>
+        <v>0.0001919780188472942</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0003073703846894205</v>
+        <v>0.001245969324372709</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.003401544876396656</v>
+        <v>0.0006428735796362162</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.002165925921872258</v>
+        <v>0.003713092766702175</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.005513986572623253</v>
+        <v>0.0006662847008556128</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0003825165331363678</v>
+        <v>0.002462059492245317</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.005462763831019402</v>
+        <v>3.435142571106553e-05</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0009051421657204628</v>
+        <v>0.0008334602462127805</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0006114952266216278</v>
+        <v>0.0001282221346627921</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.001071213977411389</v>
+        <v>0.002384300343692303</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.001098190667107701</v>
+        <v>0.004196219146251678</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.00142631446942687</v>
+        <v>0.002038245089352131</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0002952441282104701</v>
+        <v>8.879058441380039e-05</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.001463794731535017</v>
+        <v>0.0005974278901703656</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.002077821874991059</v>
+        <v>0.003585017286241055</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0006240315269678831</v>
+        <v>0.003601827193051577</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.001358132343739271</v>
+        <v>0.007456663064658642</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.005212493240833282</v>
+        <v>0.003316719783470035</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.002159242983907461</v>
+        <v>0.004019996151328087</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.002236143918707967</v>
+        <v>1.713806796033168e-06</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0001691458746790886</v>
+        <v>0.0001589349849382415</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00153273856267333</v>
+        <v>3.219598511350341e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004081722348928452</v>
+        <v>4.068197085871361e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005633530206978321</v>
+        <v>5.513967698789202e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01230051927268505</v>
+        <v>0.0002186748461099342</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002779197413474321</v>
+        <v>1.918842099257745e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0178194772452116</v>
+        <v>0.0001093304017558694</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004676859825849533</v>
+        <v>2.498055619071238e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0004319249128457159</v>
+        <v>2.532666439947207e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00181718694511801</v>
+        <v>0.0001285065955016762</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002120646415278316</v>
+        <v>3.363811629242264e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002830310491845012</v>
+        <v>1.604647150088567e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>0.006229094229638577</v>
+        <v>2.723426587181166e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01161566283553839</v>
+        <v>0.0001938197819981724</v>
       </c>
       <c r="P14" t="n">
-        <v>0.003631290979683399</v>
+        <v>2.176566340494901e-06</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02010959200561047</v>
+        <v>8.528582839062437e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001706087496131659</v>
+        <v>3.619282779254718e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0005344037199392915</v>
+        <v>2.552919795562048e-07</v>
       </c>
       <c r="T14" t="n">
-        <v>0.001692856196314096</v>
+        <v>1.870217602117918e-06</v>
       </c>
       <c r="U14" t="n">
-        <v>7.217866368591785e-05</v>
+        <v>2.31074864132097e-07</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0001266883627977222</v>
+        <v>2.7747430067393e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>0.001683281036093831</v>
+        <v>5.326824248186313e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00149171706289053</v>
+        <v>2.768543163256254e-05</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0004248784680385143</v>
+        <v>6.655694051005412e-06</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.005324737168848515</v>
+        <v>1.063950276147807e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0004621782863978297</v>
+        <v>7.090684903232614e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.002277323976159096</v>
+        <v>2.26613929044106e-06</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.000342305313097313</v>
+        <v>2.812279126374051e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0004970027366653085</v>
+        <v>2.026861329795793e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.003586509963497519</v>
+        <v>1.744439941830933e-06</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.004465519450604916</v>
+        <v>1.904234522953629e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.001276949886232615</v>
+        <v>1.259936470887624e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.006383612751960754</v>
+        <v>5.139831500855507e-06</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.279243199154735e-05</v>
+        <v>1.176283512904774e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.001996725331991911</v>
+        <v>1.499558402429102e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.001034483197145164</v>
+        <v>1.861624696175568e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0001374473213218153</v>
+        <v>1.68922033481067e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.003396194195374846</v>
+        <v>1.667564720264636e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.000728864164557308</v>
+        <v>1.456867721572053e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.007939937524497509</v>
+        <v>1.906941861307132e-06</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.001155060832388699</v>
+        <v>2.208183286711574e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0004960108199156821</v>
+        <v>2.295932517881738e-06</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0004194061330053955</v>
+        <v>1.330597751802998e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0003225321997888386</v>
+        <v>2.62396247308061e-06</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.002112885005772114</v>
+        <v>9.6876137831714e-06</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.004661004524677992</v>
+        <v>8.357882325071841e-05</v>
       </c>
       <c r="AV14" t="n">
-        <v>4.361855098977685e-05</v>
+        <v>2.596697231638245e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.001580396550707519</v>
+        <v>4.604988862411119e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.459929186850786e-05</v>
+        <v>4.967415588907897e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.007687843404710293</v>
+        <v>0.0001180670806206763</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.002119336510077119</v>
+        <v>2.607932219689246e-05</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.008241754025220871</v>
+        <v>1.420098124071956e-05</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0002570300421211869</v>
+        <v>1.697802872513421e-05</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.00128032430075109</v>
+        <v>1.688934025878552e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0005555761163122952</v>
+        <v>4.529607031145133e-05</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0007605107966810465</v>
+        <v>2.760752249741927e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.003485592314973474</v>
+        <v>1.619143222342245e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.005453962367027998</v>
+        <v>2.931056769739371e-05</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.001439390936866403</v>
+        <v>4.447094033821486e-05</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.005374136380851269</v>
+        <v>4.097943474334897e-06</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.002548264572396874</v>
+        <v>3.390906204003841e-05</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0006782314740121365</v>
+        <v>1.963065369636752e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0006864384049549699</v>
+        <v>1.302643977396656e-05</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.002614595461636782</v>
+        <v>4.175494541414082e-05</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.001788981608115137</v>
+        <v>2.610254159662873e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.0003897540736943483</v>
+        <v>1.782217077561654e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.0009483409812673926</v>
+        <v>1.267875177290989e-05</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.0005004886188544333</v>
+        <v>5.809806680190377e-06</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.005002210382372141</v>
+        <v>1.612181222299114e-06</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0004881116910837591</v>
+        <v>1.579959098307882e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.0001019252667902038</v>
+        <v>6.029045835020952e-06</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.001022307435050607</v>
+        <v>5.971492100798059e-06</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.0006423508748412132</v>
+        <v>5.935759691055864e-05</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.0005413007456809282</v>
+        <v>4.330882802605629e-06</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0001253602094948292</v>
+        <v>1.985926974157337e-05</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.001032569212839007</v>
+        <v>1.748122485878412e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.004775618202984333</v>
+        <v>7.717970584053546e-05</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.001416516955941916</v>
+        <v>8.356460057257209e-07</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.007804387249052525</v>
+        <v>5.316525857779197e-06</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.0004189760365989059</v>
+        <v>8.07254127721535e-06</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.001362830400466919</v>
+        <v>3.969001681980444e-06</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0006593120051547885</v>
+        <v>1.96447545022238e-05</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0008130584028549492</v>
+        <v>4.558013642963488e-06</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.0006906278431415558</v>
+        <v>2.252274953207234e-07</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.001926026423461735</v>
+        <v>1.758895632519852e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.002045284025371075</v>
+        <v>4.140562668908387e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0001390346151310951</v>
+        <v>1.148338196799159e-05</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.002641107887029648</v>
+        <v>1.735335899866186e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0001298447605222464</v>
+        <v>2.480741613908322e-06</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.001886386540718377</v>
+        <v>1.61543684953358e-05</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.0005599852884188294</v>
+        <v>1.248784974450245e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.001071823295205832</v>
+        <v>5.155265171197243e-06</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.0007193084456957877</v>
+        <v>8.833314495859668e-06</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.003059200942516327</v>
+        <v>3.328585444251075e-05</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.001328645623289049</v>
+        <v>3.191297309967922e-06</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.001877672038972378</v>
+        <v>2.488804602762684e-05</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.00361055601388216</v>
+        <v>1.96207929548109e-05</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.002580016851425171</v>
+        <v>2.843161928467453e-05</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.001810148591175675</v>
+        <v>2.296239472343586e-06</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.001180743216536939</v>
+        <v>1.509287812950788e-05</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.001033271779306233</v>
+        <v>5.694796527677681e-06</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.0002860301756300032</v>
+        <v>5.207401045481674e-06</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.001817646552808583</v>
+        <v>9.19586636882741e-06</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.002009005751460791</v>
+        <v>3.850407301797532e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>9.201410284731537e-05</v>
+        <v>8.442193575319834e-06</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.003806036897003651</v>
+        <v>2.218375084339641e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0001353576517431065</v>
+        <v>1.275159775104839e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.008337321691215038</v>
+        <v>3.130217010038905e-05</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.007454216945916414</v>
+        <v>4.494071617955342e-06</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.00180428649764508</v>
+        <v>1.638532467040932e-06</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.002885084832087159</v>
+        <v>8.243185584433377e-05</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.001434941659681499</v>
+        <v>4.23089149990119e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.002559442073106766</v>
+        <v>2.58976906479802e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.000149887433508411</v>
+        <v>8.270121725217905e-07</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.001329348306171596</v>
+        <v>3.259180812165141e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.001172544551081955</v>
+        <v>3.191432915627956e-05</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.001281347707845271</v>
+        <v>5.107410288474057e-06</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.001406045281328261</v>
+        <v>7.099426511558704e-06</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.0003922604373656213</v>
+        <v>2.541526191635057e-05</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0004591622564475983</v>
+        <v>8.719256584299728e-06</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.001592214335687459</v>
+        <v>2.193074942624662e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.000718669849447906</v>
+        <v>3.494685006444342e-05</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.001922939787618816</v>
+        <v>1.556160168547649e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0006052202079445124</v>
+        <v>1.411533958162181e-05</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.001031419145874679</v>
+        <v>1.419978161720792e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.001468541449867189</v>
+        <v>7.803302651154809e-06</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.0009335757931694388</v>
+        <v>3.527609351294814e-06</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.000714572612196207</v>
+        <v>3.658328751043882e-06</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0001569667365401983</v>
+        <v>1.595640969753731e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0006880140863358974</v>
+        <v>9.675518413132522e-06</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.0002519520930945873</v>
+        <v>2.69149495579768e-05</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.0009539403836242855</v>
+        <v>2.04201342057786e-06</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.001986154122278094</v>
+        <v>7.868554348533507e-06</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.001744638429954648</v>
+        <v>2.225013668066822e-05</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.005461601074784994</v>
+        <v>2.906750523834489e-06</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.001500927377492189</v>
+        <v>1.40266402013367e-05</v>
       </c>
       <c r="EH14" t="n">
-        <v>5.772177246399224e-05</v>
+        <v>7.844289029890206e-06</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.001080855494365096</v>
+        <v>2.422758007014636e-05</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.0008510565385222435</v>
+        <v>1.019486353470711e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.001852099085226655</v>
+        <v>1.67824218806345e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.0006102642510086298</v>
+        <v>7.772740900691133e-06</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.004597286228090525</v>
+        <v>9.531366231385618e-06</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.0002263048227177933</v>
+        <v>4.300372893339954e-06</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.0004229663463775069</v>
+        <v>1.367186882816895e-06</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.0004818107991013676</v>
+        <v>7.432019629050046e-06</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.001959430985152721</v>
+        <v>1.57880913320696e-05</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0001746369816828519</v>
+        <v>4.236111635691486e-06</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.003011906752362847</v>
+        <v>5.832543138239998e-06</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.00140604586340487</v>
+        <v>1.37404431370669e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.001012992346659303</v>
+        <v>1.100934696296463e-06</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.001223052036948502</v>
+        <v>7.113902393030003e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.0004486853140406311</v>
+        <v>2.096095704473555e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.001828356413170695</v>
+        <v>8.874568493411061e-07</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.001430697506293654</v>
+        <v>1.344917382084532e-05</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.001248876797035336</v>
+        <v>1.448357579647563e-06</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.001182123203761876</v>
+        <v>5.486833742907038e-07</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.002617562655359507</v>
+        <v>1.892425098048989e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.002220669994130731</v>
+        <v>3.898625436704606e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.0002874808851629496</v>
+        <v>1.321368745266227e-05</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.003835211740806699</v>
+        <v>2.014843266806565e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0003550378314685076</v>
+        <v>7.312291472771903e-06</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.0004671318747568876</v>
+        <v>1.277522551390575e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.0005743621150031686</v>
+        <v>2.075798147416208e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.0002812413149513304</v>
+        <v>7.849121175240725e-06</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.0005575643153861165</v>
+        <v>4.732578236144036e-05</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.0007730230572633445</v>
+        <v>6.037973435013555e-06</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.001078153145499527</v>
+        <v>8.653847544337623e-06</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.0008661957690492272</v>
+        <v>9.836670869844966e-06</v>
       </c>
       <c r="FN14" t="n">
-        <v>8.484146383125335e-05</v>
+        <v>5.484741450345609e-06</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0004224696895107627</v>
+        <v>6.891988959978335e-06</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.003541536629199982</v>
+        <v>4.443362195161171e-05</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.0006753571215085685</v>
+        <v>1.851501474448014e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.0003949667152483016</v>
+        <v>1.773328222043347e-06</v>
       </c>
       <c r="FS14" t="n">
-        <v>5.297770258039236e-06</v>
+        <v>5.270522706268821e-06</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.001035587745718658</v>
+        <v>1.712070661596954e-05</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.001710074604488909</v>
+        <v>3.123701753793284e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.00267245271243155</v>
+        <v>2.138618947356008e-05</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.004483073018491268</v>
+        <v>4.519661160884425e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>8.096435340121388e-05</v>
+        <v>3.135751103400253e-05</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.0008338821353390813</v>
+        <v>1.815892392187379e-05</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.000802891212515533</v>
+        <v>3.012112529177102e-06</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.0001133701807702892</v>
+        <v>1.398491531290347e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.001716058235615492</v>
+        <v>9.002181286632549e-06</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.0001131976605392992</v>
+        <v>5.503243301063776e-05</v>
       </c>
       <c r="GD14" t="n">
-        <v>8.518272079527378e-05</v>
+        <v>2.142789526260458e-05</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.0005131509969942272</v>
+        <v>2.200248673034366e-05</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0005391562590375543</v>
+        <v>1.213109953823732e-05</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0001619771064724773</v>
+        <v>1.170076757261995e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.234404294336855e-07</v>
+        <v>1.507291017333046e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>1.160144051937095e-06</v>
+        <v>0.0001732681266730651</v>
       </c>
       <c r="C15" t="n">
-        <v>1.15501529762696e-06</v>
+        <v>4.092710241820896e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>1.915874918267946e-06</v>
+        <v>0.0001146810027421452</v>
       </c>
       <c r="E15" t="n">
-        <v>2.318952965651988e-06</v>
+        <v>2.574283462308813e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>4.755172085424419e-06</v>
+        <v>3.524883140926249e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>2.20072848833297e-09</v>
+        <v>2.386650339758489e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>4.921506842947565e-06</v>
+        <v>3.314153218525462e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>5.521898742699705e-07</v>
+        <v>4.305451966502005e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>4.17368255511974e-08</v>
+        <v>6.737584953953046e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>9.202329920299235e-07</v>
+        <v>0.0001626966113690287</v>
       </c>
       <c r="L15" t="n">
-        <v>1.068769734047237e-06</v>
+        <v>1.049534785124706e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>6.132999601504707e-07</v>
+        <v>9.735051571624354e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.001872300956165e-06</v>
+        <v>3.474612458376214e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>3.624127657531062e-06</v>
+        <v>7.98085420683492e-06</v>
       </c>
       <c r="P15" t="n">
-        <v>9.403009926245431e-07</v>
+        <v>1.159262410510564e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.913658242207021e-06</v>
+        <v>1.783932748367079e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.315764848186518e-07</v>
+        <v>1.219555088027846e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>5.617261535917351e-07</v>
+        <v>1.098648863262497e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>7.666682222406962e-08</v>
+        <v>2.852688339771703e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>3.901112677340279e-08</v>
+        <v>4.46408648713259e-07</v>
       </c>
       <c r="V15" t="n">
-        <v>1.314106867766895e-07</v>
+        <v>8.862688446242828e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>5.904433919567964e-07</v>
+        <v>4.452945631783223e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>5.126180440129247e-07</v>
+        <v>2.349145461266744e-06</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.304035066596043e-07</v>
+        <v>1.552517824165989e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.286718998017022e-06</v>
+        <v>2.782301271508913e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.394174375946022e-08</v>
+        <v>2.896781006711535e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.419064853460441e-07</v>
+        <v>2.865817805286497e-07</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.700386403375887e-07</v>
+        <v>3.718642255989835e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.530192292875654e-07</v>
+        <v>2.243574726890074e-06</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.203612994999276e-07</v>
+        <v>4.272265869076364e-06</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.332498754891276e-06</v>
+        <v>1.666644493525382e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.270762019586982e-07</v>
+        <v>1.444246026949259e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.311379492108244e-06</v>
+        <v>1.635039916436654e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.569875050539849e-07</v>
+        <v>7.557692697446328e-06</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.286946252956113e-07</v>
+        <v>1.117835563491099e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.37396954819269e-07</v>
+        <v>9.041566045198124e-06</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.066570676921401e-07</v>
+        <v>2.242305163235869e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>7.291174597412464e-07</v>
+        <v>2.693227315830882e-06</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.246964793874213e-08</v>
+        <v>9.20095499168383e-06</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.402872269158252e-06</v>
+        <v>2.669798595889006e-05</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.589149114053725e-07</v>
+        <v>1.419385534973117e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.481996830283606e-09</v>
+        <v>2.274605503771454e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.612518699152133e-07</v>
+        <v>1.077268098015338e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>4.985433292858943e-07</v>
+        <v>1.115846202992543e-06</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.149646095655044e-06</v>
+        <v>2.610560113680549e-05</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.193931550209527e-06</v>
+        <v>0.0001255999086424708</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.836320535630875e-07</v>
+        <v>2.745951678662095e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.901413663243147e-07</v>
+        <v>3.770624607568607e-05</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.009234154025762e-07</v>
+        <v>5.850115030625602e-06</v>
       </c>
       <c r="AY15" t="n">
-        <v>2.921585746662458e-06</v>
+        <v>3.721517259691609e-06</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2.804173107051611e-07</v>
+        <v>6.051415766705759e-06</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.871608446890605e-06</v>
+        <v>1.615922155906446e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>3.936178529784229e-07</v>
+        <v>9.647276783653069e-06</v>
       </c>
       <c r="BC15" t="n">
-        <v>2.860270171822776e-07</v>
+        <v>3.012447996297851e-05</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.993387428456117e-07</v>
+        <v>2.015504287555814e-05</v>
       </c>
       <c r="BE15" t="n">
-        <v>4.932678621116793e-07</v>
+        <v>3.439937790972181e-05</v>
       </c>
       <c r="BF15" t="n">
-        <v>2.07830771614681e-06</v>
+        <v>5.689718364010332e-06</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.647342969590682e-06</v>
+        <v>2.454604691592976e-05</v>
       </c>
       <c r="BH15" t="n">
-        <v>3.326377964185667e-07</v>
+        <v>2.434586349409074e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>5.275909416013747e-07</v>
+        <v>1.275898284802679e-06</v>
       </c>
       <c r="BJ15" t="n">
-        <v>1.751417698869773e-06</v>
+        <v>3.231464506825432e-05</v>
       </c>
       <c r="BK15" t="n">
-        <v>3.245569928367331e-07</v>
+        <v>1.135072307079099e-05</v>
       </c>
       <c r="BL15" t="n">
-        <v>2.3195940457299e-07</v>
+        <v>1.526403866591863e-05</v>
       </c>
       <c r="BM15" t="n">
-        <v>7.55078019665234e-07</v>
+        <v>2.039126047748141e-05</v>
       </c>
       <c r="BN15" t="n">
-        <v>6.106957926022005e-07</v>
+        <v>1.167889968201052e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>3.987567822605342e-07</v>
+        <v>6.764459158148384e-06</v>
       </c>
       <c r="BP15" t="n">
-        <v>5.632879265249358e-07</v>
+        <v>3.519689198583364e-05</v>
       </c>
       <c r="BQ15" t="n">
-        <v>2.858300263142155e-08</v>
+        <v>1.45550166052999e-05</v>
       </c>
       <c r="BR15" t="n">
-        <v>2.226414380857022e-06</v>
+        <v>9.332897207059432e-06</v>
       </c>
       <c r="BS15" t="n">
-        <v>1.222033745307272e-07</v>
+        <v>1.038270238495898e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>5.246880618869909e-07</v>
+        <v>1.820501529437024e-05</v>
       </c>
       <c r="BU15" t="n">
-        <v>2.70836295612753e-07</v>
+        <v>1.22930368888774e-05</v>
       </c>
       <c r="BV15" t="n">
-        <v>2.012801871842385e-07</v>
+        <v>6.437956471927464e-05</v>
       </c>
       <c r="BW15" t="n">
-        <v>3.482839474600041e-07</v>
+        <v>5.921134288655594e-06</v>
       </c>
       <c r="BX15" t="n">
-        <v>4.674821525441075e-07</v>
+        <v>2.258395034004934e-05</v>
       </c>
       <c r="BY15" t="n">
-        <v>2.738355249221058e-07</v>
+        <v>7.764637302898336e-06</v>
       </c>
       <c r="BZ15" t="n">
-        <v>2.134557689714711e-06</v>
+        <v>3.42771272698883e-06</v>
       </c>
       <c r="CA15" t="n">
-        <v>9.167909809093544e-08</v>
+        <v>1.764852095220704e-05</v>
       </c>
       <c r="CB15" t="n">
-        <v>1.795180537556007e-06</v>
+        <v>4.188563252682798e-06</v>
       </c>
       <c r="CC15" t="n">
-        <v>2.490198767191032e-07</v>
+        <v>2.149945430574007e-05</v>
       </c>
       <c r="CD15" t="n">
-        <v>5.117875616633683e-07</v>
+        <v>9.261165132556926e-07</v>
       </c>
       <c r="CE15" t="n">
-        <v>1.098872104421389e-09</v>
+        <v>2.992691406689119e-05</v>
       </c>
       <c r="CF15" t="n">
-        <v>3.055507704630145e-07</v>
+        <v>5.601228167506633e-06</v>
       </c>
       <c r="CG15" t="n">
-        <v>2.507068472823448e-07</v>
+        <v>8.558399713365361e-06</v>
       </c>
       <c r="CH15" t="n">
-        <v>6.488713211183494e-07</v>
+        <v>7.006854957580799e-06</v>
       </c>
       <c r="CI15" t="n">
-        <v>6.053569450159557e-07</v>
+        <v>7.136993644962786e-06</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1.095187940336473e-07</v>
+        <v>3.848591404675972e-06</v>
       </c>
       <c r="CK15" t="n">
-        <v>7.936941983643919e-07</v>
+        <v>3.643313675638638e-06</v>
       </c>
       <c r="CL15" t="n">
-        <v>9.578381110486589e-08</v>
+        <v>6.293703791016014e-06</v>
       </c>
       <c r="CM15" t="n">
-        <v>9.503743285677047e-07</v>
+        <v>5.444662383524701e-05</v>
       </c>
       <c r="CN15" t="n">
-        <v>1.539491165658546e-07</v>
+        <v>1.70930888998555e-05</v>
       </c>
       <c r="CO15" t="n">
-        <v>3.295983788120793e-07</v>
+        <v>3.078973804804264e-06</v>
       </c>
       <c r="CP15" t="n">
-        <v>5.709473498427542e-07</v>
+        <v>4.677734614233486e-05</v>
       </c>
       <c r="CQ15" t="n">
-        <v>3.537429620337207e-07</v>
+        <v>3.691098027047701e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>8.477201163259451e-07</v>
+        <v>2.254164610349108e-05</v>
       </c>
       <c r="CS15" t="n">
-        <v>8.270239959529135e-07</v>
+        <v>4.114824696443975e-05</v>
       </c>
       <c r="CT15" t="n">
-        <v>3.083229671574372e-07</v>
+        <v>5.241196777205914e-05</v>
       </c>
       <c r="CU15" t="n">
-        <v>3.959816297083307e-07</v>
+        <v>4.243348939780844e-06</v>
       </c>
       <c r="CV15" t="n">
-        <v>6.209232878973125e-07</v>
+        <v>2.797470870063989e-06</v>
       </c>
       <c r="CW15" t="n">
-        <v>1.36067896505665e-07</v>
+        <v>2.730151391006075e-05</v>
       </c>
       <c r="CX15" t="n">
-        <v>4.131362913994963e-07</v>
+        <v>1.183105359814363e-05</v>
       </c>
       <c r="CY15" t="n">
-        <v>9.369608733322821e-08</v>
+        <v>1.92723709915299e-05</v>
       </c>
       <c r="CZ15" t="n">
-        <v>4.99322652558476e-07</v>
+        <v>8.115403943520505e-06</v>
       </c>
       <c r="DA15" t="n">
-        <v>4.91085586418194e-07</v>
+        <v>5.81101903662784e-06</v>
       </c>
       <c r="DB15" t="n">
-        <v>2.079779903851886e-07</v>
+        <v>7.848004315746948e-06</v>
       </c>
       <c r="DC15" t="n">
-        <v>1.2341066621957e-06</v>
+        <v>7.091345651133452e-06</v>
       </c>
       <c r="DD15" t="n">
-        <v>1.997506018369677e-07</v>
+        <v>1.090361365641002e-06</v>
       </c>
       <c r="DE15" t="n">
-        <v>2.046908093689126e-06</v>
+        <v>2.064691761916038e-05</v>
       </c>
       <c r="DF15" t="n">
-        <v>2.082930677715922e-06</v>
+        <v>7.367717444139998e-06</v>
       </c>
       <c r="DG15" t="n">
-        <v>2.574464872395765e-07</v>
+        <v>1.396913830831181e-05</v>
       </c>
       <c r="DH15" t="n">
-        <v>6.07893298365525e-07</v>
+        <v>3.615699097281322e-05</v>
       </c>
       <c r="DI15" t="n">
-        <v>3.343072307870898e-07</v>
+        <v>8.164449354808312e-06</v>
       </c>
       <c r="DJ15" t="n">
-        <v>7.55130713514518e-07</v>
+        <v>4.545297997538e-06</v>
       </c>
       <c r="DK15" t="n">
-        <v>6.446441602747655e-09</v>
+        <v>7.166314389905892e-06</v>
       </c>
       <c r="DL15" t="n">
-        <v>4.684674763666408e-07</v>
+        <v>9.59051976678893e-06</v>
       </c>
       <c r="DM15" t="n">
-        <v>9.755474366102135e-07</v>
+        <v>3.626733359851642e-06</v>
       </c>
       <c r="DN15" t="n">
-        <v>7.603077989415397e-08</v>
+        <v>1.82009398486116e-06</v>
       </c>
       <c r="DO15" t="n">
-        <v>8.003795528566116e-07</v>
+        <v>6.567609943886055e-06</v>
       </c>
       <c r="DP15" t="n">
-        <v>1.488603373900332e-07</v>
+        <v>1.471194445912261e-05</v>
       </c>
       <c r="DQ15" t="n">
-        <v>6.063038426873391e-08</v>
+        <v>1.561728095111903e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>5.18568015195342e-07</v>
+        <v>1.998847983486485e-05</v>
       </c>
       <c r="DS15" t="n">
-        <v>2.402791210442956e-07</v>
+        <v>1.217449494106404e-06</v>
       </c>
       <c r="DT15" t="n">
-        <v>8.345637070306111e-07</v>
+        <v>3.403913069632836e-06</v>
       </c>
       <c r="DU15" t="n">
-        <v>1.639146773868561e-08</v>
+        <v>1.141366647061659e-05</v>
       </c>
       <c r="DV15" t="n">
-        <v>2.92422527081726e-07</v>
+        <v>1.446531223336933e-05</v>
       </c>
       <c r="DW15" t="n">
-        <v>2.468266302457778e-07</v>
+        <v>1.363139563181903e-05</v>
       </c>
       <c r="DX15" t="n">
-        <v>4.377185689463658e-07</v>
+        <v>2.30668083531782e-05</v>
       </c>
       <c r="DY15" t="n">
-        <v>3.739367571142793e-07</v>
+        <v>1.745267582009546e-05</v>
       </c>
       <c r="DZ15" t="n">
-        <v>7.798633987476933e-07</v>
+        <v>1.382024765916867e-05</v>
       </c>
       <c r="EA15" t="n">
-        <v>9.246645049643121e-07</v>
+        <v>2.793910198306548e-06</v>
       </c>
       <c r="EB15" t="n">
-        <v>1.552985224861914e-07</v>
+        <v>8.643984983791597e-06</v>
       </c>
       <c r="EC15" t="n">
-        <v>1.98636215031911e-07</v>
+        <v>1.078583136404632e-05</v>
       </c>
       <c r="ED15" t="n">
-        <v>4.670117448313249e-07</v>
+        <v>8.453667760477401e-06</v>
       </c>
       <c r="EE15" t="n">
-        <v>5.427673954727652e-08</v>
+        <v>3.028644641744904e-06</v>
       </c>
       <c r="EF15" t="n">
-        <v>1.964113380381605e-06</v>
+        <v>7.46721798350336e-06</v>
       </c>
       <c r="EG15" t="n">
-        <v>3.714239369401184e-07</v>
+        <v>1.981232708203606e-05</v>
       </c>
       <c r="EH15" t="n">
-        <v>2.213100742665119e-07</v>
+        <v>1.177339527203003e-05</v>
       </c>
       <c r="EI15" t="n">
-        <v>8.68945789989084e-07</v>
+        <v>1.420025728293695e-05</v>
       </c>
       <c r="EJ15" t="n">
-        <v>2.737084230375331e-07</v>
+        <v>2.876070902857464e-05</v>
       </c>
       <c r="EK15" t="n">
-        <v>6.280277489167929e-07</v>
+        <v>4.983002327207942e-06</v>
       </c>
       <c r="EL15" t="n">
-        <v>1.866945495976324e-07</v>
+        <v>3.572313289623708e-06</v>
       </c>
       <c r="EM15" t="n">
-        <v>1.119495095736056e-06</v>
+        <v>2.393059503447148e-06</v>
       </c>
       <c r="EN15" t="n">
-        <v>2.072931124530442e-07</v>
+        <v>9.835198397922795e-06</v>
       </c>
       <c r="EO15" t="n">
-        <v>2.066594220195839e-07</v>
+        <v>2.396552190475632e-06</v>
       </c>
       <c r="EP15" t="n">
-        <v>2.797255547193345e-07</v>
+        <v>3.043637843802571e-05</v>
       </c>
       <c r="EQ15" t="n">
-        <v>4.068854764227581e-07</v>
+        <v>1.330436134594493e-05</v>
       </c>
       <c r="ER15" t="n">
-        <v>4.790344405591895e-07</v>
+        <v>1.010694722936023e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>1.109060576709453e-06</v>
+        <v>3.087116056121886e-06</v>
       </c>
       <c r="ET15" t="n">
-        <v>5.990180795834021e-08</v>
+        <v>6.374509212037083e-06</v>
       </c>
       <c r="EU15" t="n">
-        <v>1.076703483704478e-06</v>
+        <v>2.27688615268562e-05</v>
       </c>
       <c r="EV15" t="n">
-        <v>1.829561000477042e-07</v>
+        <v>2.107042564603034e-05</v>
       </c>
       <c r="EW15" t="n">
-        <v>1.040402025864751e-06</v>
+        <v>1.86971592484042e-05</v>
       </c>
       <c r="EX15" t="n">
-        <v>5.751935532316566e-07</v>
+        <v>4.628474471246591e-06</v>
       </c>
       <c r="EY15" t="n">
-        <v>2.871360038625426e-07</v>
+        <v>2.826224954333156e-05</v>
       </c>
       <c r="EZ15" t="n">
-        <v>3.953381906285358e-07</v>
+        <v>7.44057842894108e-06</v>
       </c>
       <c r="FA15" t="n">
-        <v>4.295642668239452e-07</v>
+        <v>1.28882611534209e-05</v>
       </c>
       <c r="FB15" t="n">
-        <v>8.084577416411776e-07</v>
+        <v>3.754734052563435e-06</v>
       </c>
       <c r="FC15" t="n">
-        <v>6.219871693247114e-07</v>
+        <v>3.562623533071019e-06</v>
       </c>
       <c r="FD15" t="n">
-        <v>1.015235397971992e-07</v>
+        <v>7.49964374335832e-06</v>
       </c>
       <c r="FE15" t="n">
-        <v>1.277523551834747e-06</v>
+        <v>2.107265117956558e-06</v>
       </c>
       <c r="FF15" t="n">
-        <v>1.868585286501911e-07</v>
+        <v>5.070689894637326e-06</v>
       </c>
       <c r="FG15" t="n">
-        <v>9.123314015369033e-08</v>
+        <v>5.608221727015916e-07</v>
       </c>
       <c r="FH15" t="n">
-        <v>2.211464362744664e-07</v>
+        <v>1.462071941205068e-05</v>
       </c>
       <c r="FI15" t="n">
-        <v>2.05569790523441e-07</v>
+        <v>3.16032710543368e-05</v>
       </c>
       <c r="FJ15" t="n">
-        <v>4.034298228816624e-07</v>
+        <v>1.523567334515974e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>1.148557544183859e-06</v>
+        <v>1.345145210507326e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>1.729099494696129e-06</v>
+        <v>9.932226930686738e-06</v>
       </c>
       <c r="FM15" t="n">
-        <v>4.404754463394056e-07</v>
+        <v>5.091942057333654e-06</v>
       </c>
       <c r="FN15" t="n">
-        <v>8.370363389076374e-07</v>
+        <v>8.290892310469644e-07</v>
       </c>
       <c r="FO15" t="n">
-        <v>6.380297463692841e-07</v>
+        <v>7.719829227426089e-06</v>
       </c>
       <c r="FP15" t="n">
-        <v>1.26071927297744e-06</v>
+        <v>2.22277103603119e-05</v>
       </c>
       <c r="FQ15" t="n">
-        <v>6.795863782826927e-08</v>
+        <v>3.627976866482641e-06</v>
       </c>
       <c r="FR15" t="n">
-        <v>8.328288458869793e-08</v>
+        <v>3.699088847497478e-05</v>
       </c>
       <c r="FS15" t="n">
-        <v>4.204405286145629e-07</v>
+        <v>2.131367909896653e-05</v>
       </c>
       <c r="FT15" t="n">
-        <v>1.639718334445206e-07</v>
+        <v>1.562626130180433e-05</v>
       </c>
       <c r="FU15" t="n">
-        <v>8.273007665593468e-07</v>
+        <v>1.988502481253818e-05</v>
       </c>
       <c r="FV15" t="n">
-        <v>3.193793531863776e-07</v>
+        <v>1.323123797192238e-06</v>
       </c>
       <c r="FW15" t="n">
-        <v>1.217831254507473e-06</v>
+        <v>5.949422302364837e-06</v>
       </c>
       <c r="FX15" t="n">
-        <v>2.446933535793505e-07</v>
+        <v>9.704136573418509e-06</v>
       </c>
       <c r="FY15" t="n">
-        <v>1.918976977322018e-08</v>
+        <v>2.280475564475637e-05</v>
       </c>
       <c r="FZ15" t="n">
-        <v>3.731726962996618e-07</v>
+        <v>1.180868457595352e-05</v>
       </c>
       <c r="GA15" t="n">
-        <v>1.650828096444457e-07</v>
+        <v>1.409775086358422e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>3.89764522878977e-08</v>
+        <v>8.224252269428689e-06</v>
       </c>
       <c r="GC15" t="n">
-        <v>1.681380439322311e-07</v>
+        <v>8.337044164363761e-06</v>
       </c>
       <c r="GD15" t="n">
-        <v>4.309907524202572e-07</v>
+        <v>2.767593468888663e-05</v>
       </c>
       <c r="GE15" t="n">
-        <v>2.24588518449309e-07</v>
+        <v>6.250327714951709e-05</v>
       </c>
       <c r="GF15" t="n">
-        <v>7.00612190485117e-08</v>
+        <v>7.637973794771824e-06</v>
       </c>
       <c r="GG15" t="n">
-        <v>4.547617606931453e-07</v>
+        <v>1.395175604557153e-05</v>
       </c>
     </row>
   </sheetData>
